--- a/Texts/Город Сокровищ/Гильдия Виглитаффа/Комнаты.xlsx
+++ b/Texts/Город Сокровищ/Гильдия Виглитаффа/Комнаты.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="1655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="1694">
   <si>
     <t>Раздел</t>
   </si>
@@ -4987,6 +4987,123 @@
   </si>
   <si>
     <t>Íú âúðïìîéìé îàšå èàäàîéå! ♪[K]\nÂåòæìúê áúì äåîû!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P07C/c00a0301.ssb</t>
+  </si>
+  <si>
+    <t>16, 20, 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We should get some sleep too.</t>
+  </si>
+  <si>
+    <t>30, 34, 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s make tomorrow another\ngood day, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All right, good night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK, good night.</t>
+  </si>
+  <si>
+    <t>48, 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам тоже нужно поспать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давай сделаем так, чтобы\nзавтра у нас был ещё один хороший день,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ладно, доброй ночи.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что-ж, доброй ночи.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí óïçå îôçîï ðïòðàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâàê òäåìàåí óàë, œóïáú\nèàâóñà ô îàò áúì åþæ ïäéî öïñïšéê äåîû,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ìàäîï, äïáñïê îïœé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï-ç, äïáñïê îïœé.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P07A/c00a0201.ssb</t>
+  </si>
+  <si>
+    <t>[CN]The next morning…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UP AND AT \'EM![K] IT\'S MORNING!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh! Good morning,\n[hero]…</t>
+  </si>
+  <si>
+    <t>95, 99, 103</t>
+  </si>
+  <si>
+    <t>The Gatekeepers</t>
+  </si>
+  <si>
+    <t>The First\nOfficial\nExploration</t>
+  </si>
+  <si>
+    <t>Team Skull</t>
+  </si>
+  <si>
+    <t>[CN]На следующее утро...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ПРОСЫПАЙТЕСЬ![K] УТРО НАСТУПИЛО!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух! Доброе утро,\n[hero]...</t>
+  </si>
+  <si>
+    <t>Привратники</t>
+  </si>
+  <si>
+    <t>Первая\nОфициальная\nВылазка</t>
+  </si>
+  <si>
+    <t>Команда Череп</t>
+  </si>
+  <si>
+    <t>[CN]Îà òìåäôýþåå ôóñï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÐÑÏÒÚÐÀÊÓÅÒÛ![K] ÔÓÑÏ ÎÀÒÓÔÐÉÌÏ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö! Äïáñïå ôóñï,\n[hero]...</t>
+  </si>
+  <si>
+    <t>Ðñéâñàóîéëé</t>
+  </si>
+  <si>
+    <t>Ðåñâàÿ\nÏõéøéàìûîàÿ\nÂúìàèëà</t>
+  </si>
+  <si>
+    <t>Ëïíàîäà Œåñåð</t>
+  </si>
+  <si>
+    <t>The Scream</t>
+  </si>
+  <si>
+    <t>Крик</t>
+  </si>
+  <si>
+    <t>Ëñéë</t>
   </si>
 </sst>
 </file>
@@ -5036,7 +5153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -5155,11 +5272,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5216,6 +5342,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5498,16 +5630,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E583"/>
+  <dimension ref="A1:E594"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B556" sqref="B556"/>
+    <sheetView tabSelected="1" topLeftCell="B587" workbookViewId="0">
+      <selection activeCell="E594" sqref="E594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="4" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="38.5546875" style="13" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="13" customWidth="1"/>
@@ -10576,3437 +10708,3650 @@
       </c>
     </row>
     <row r="344" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A344" s="4" t="s">
+      <c r="A344" s="20" t="s">
         <v>933</v>
       </c>
-      <c r="B344" s="4">
+      <c r="B344" s="20">
         <v>36</v>
       </c>
-      <c r="C344" s="13" t="s">
+      <c r="C344" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D344" s="13" t="s">
+      <c r="D344" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="E344" s="13" t="s">
+      <c r="E344" s="21" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A345" s="4" t="s">
+      <c r="A345" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B345" s="4">
+      <c r="B345" s="6">
         <v>40</v>
       </c>
-      <c r="C345" s="13" t="s">
+      <c r="C345" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="D345" s="13" t="s">
+      <c r="D345" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="E345" s="13" t="s">
+      <c r="E345" s="7" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B346" s="4">
+      <c r="A346" s="6"/>
+      <c r="B346" s="6">
         <v>42</v>
       </c>
-      <c r="C346" s="13" t="s">
+      <c r="C346" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D346" s="13" t="s">
+      <c r="D346" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E346" s="13" t="s">
+      <c r="E346" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A347" s="4" t="s">
+      <c r="A347" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B347" s="4">
+      <c r="B347" s="6">
         <v>57</v>
       </c>
-      <c r="C347" s="13" t="s">
+      <c r="C347" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="D347" s="13" t="s">
+      <c r="D347" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="E347" s="13" t="s">
+      <c r="E347" s="7" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B348" s="4">
+      <c r="A348" s="6"/>
+      <c r="B348" s="6">
         <v>60</v>
       </c>
-      <c r="C348" s="13" t="s">
+      <c r="C348" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="D348" s="13" t="s">
+      <c r="D348" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="E348" s="13" t="s">
+      <c r="E348" s="7" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B349" s="4">
+      <c r="A349" s="6"/>
+      <c r="B349" s="6">
         <v>63</v>
       </c>
-      <c r="C349" s="13" t="s">
+      <c r="C349" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="D349" s="13" t="s">
+      <c r="D349" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="E349" s="13" t="s">
+      <c r="E349" s="7" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B350" s="4">
+      <c r="A350" s="6"/>
+      <c r="B350" s="6">
         <v>66</v>
       </c>
-      <c r="C350" s="13" t="s">
+      <c r="C350" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="D350" s="13" t="s">
+      <c r="D350" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="E350" s="13" t="s">
+      <c r="E350" s="7" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B351" s="4">
+      <c r="A351" s="6"/>
+      <c r="B351" s="6">
         <v>69</v>
       </c>
-      <c r="C351" s="13" t="s">
+      <c r="C351" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="D351" s="13" t="s">
+      <c r="D351" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="E351" s="13" t="s">
+      <c r="E351" s="7" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B352" s="4">
+      <c r="A352" s="6"/>
+      <c r="B352" s="6">
         <v>72</v>
       </c>
-      <c r="C352" s="13" t="s">
+      <c r="C352" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="D352" s="13" t="s">
+      <c r="D352" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="E352" s="13" t="s">
+      <c r="E352" s="7" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B353" s="4">
+      <c r="A353" s="6"/>
+      <c r="B353" s="6">
         <v>75</v>
       </c>
-      <c r="C353" s="13" t="s">
+      <c r="C353" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="D353" s="13" t="s">
+      <c r="D353" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="E353" s="13" t="s">
+      <c r="E353" s="7" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B354" s="4">
+      <c r="A354" s="6"/>
+      <c r="B354" s="6">
         <v>78</v>
       </c>
-      <c r="C354" s="13" t="s">
+      <c r="C354" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="D354" s="13" t="s">
+      <c r="D354" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="E354" s="13" t="s">
+      <c r="E354" s="7" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B355" s="4">
+      <c r="A355" s="6"/>
+      <c r="B355" s="6">
         <v>81</v>
       </c>
-      <c r="C355" s="13" t="s">
+      <c r="C355" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="D355" s="13" t="s">
+      <c r="D355" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="E355" s="13" t="s">
+      <c r="E355" s="7" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B356" s="4">
+      <c r="A356" s="6"/>
+      <c r="B356" s="6">
         <v>84</v>
       </c>
-      <c r="C356" s="13" t="s">
+      <c r="C356" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="D356" s="13" t="s">
+      <c r="D356" s="7" t="s">
         <v>965</v>
       </c>
-      <c r="E356" s="13" t="s">
+      <c r="E356" s="7" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B357" s="4">
+      <c r="A357" s="6"/>
+      <c r="B357" s="6">
         <v>87</v>
       </c>
-      <c r="C357" s="13" t="s">
+      <c r="C357" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="D357" s="13" t="s">
+      <c r="D357" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="E357" s="13" t="s">
+      <c r="E357" s="7" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A358" s="4" t="s">
+      <c r="A358" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B358" s="4">
+      <c r="B358" s="6">
         <v>105</v>
       </c>
-      <c r="C358" s="13" t="s">
+      <c r="C358" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="D358" s="13" t="s">
+      <c r="D358" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="E358" s="13" t="s">
+      <c r="E358" s="7" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B359" s="4">
+      <c r="A359" s="6"/>
+      <c r="B359" s="6">
         <v>108</v>
       </c>
-      <c r="C359" s="13" t="s">
+      <c r="C359" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="D359" s="13" t="s">
+      <c r="D359" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="E359" s="13" t="s">
+      <c r="E359" s="7" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B360" s="4">
+      <c r="A360" s="6"/>
+      <c r="B360" s="6">
         <v>111</v>
       </c>
-      <c r="C360" s="13" t="s">
+      <c r="C360" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="D360" s="13" t="s">
+      <c r="D360" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="E360" s="13" t="s">
+      <c r="E360" s="7" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B361" s="4">
+      <c r="A361" s="6"/>
+      <c r="B361" s="6">
         <v>114</v>
       </c>
-      <c r="C361" s="13" t="s">
+      <c r="C361" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="D361" s="13" t="s">
+      <c r="D361" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="E361" s="13" t="s">
+      <c r="E361" s="7" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B362" s="4">
+      <c r="A362" s="6"/>
+      <c r="B362" s="6">
         <v>117</v>
       </c>
-      <c r="C362" s="13" t="s">
+      <c r="C362" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="D362" s="13" t="s">
+      <c r="D362" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="E362" s="13" t="s">
+      <c r="E362" s="7" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B363" s="4">
+      <c r="A363" s="6"/>
+      <c r="B363" s="6">
         <v>120</v>
       </c>
-      <c r="C363" s="13" t="s">
+      <c r="C363" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="D363" s="13" t="s">
+      <c r="D363" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="E363" s="13" t="s">
+      <c r="E363" s="7" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B364" s="4">
+      <c r="A364" s="6"/>
+      <c r="B364" s="6">
         <v>123</v>
       </c>
-      <c r="C364" s="13" t="s">
+      <c r="C364" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="D364" s="13" t="s">
+      <c r="D364" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="E364" s="13" t="s">
+      <c r="E364" s="7" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B365" s="4">
+      <c r="A365" s="6"/>
+      <c r="B365" s="6">
         <v>126</v>
       </c>
-      <c r="C365" s="13" t="s">
+      <c r="C365" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="D365" s="13" t="s">
+      <c r="D365" s="7" t="s">
         <v>992</v>
       </c>
-      <c r="E365" s="13" t="s">
+      <c r="E365" s="7" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B366" s="4">
+      <c r="A366" s="6"/>
+      <c r="B366" s="6">
         <v>129</v>
       </c>
-      <c r="C366" s="13" t="s">
+      <c r="C366" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="D366" s="13" t="s">
+      <c r="D366" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="E366" s="13" t="s">
+      <c r="E366" s="7" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A367" s="4" t="s">
+      <c r="A367" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B367" s="4">
+      <c r="B367" s="6">
         <v>135</v>
       </c>
-      <c r="C367" s="13" t="s">
+      <c r="C367" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="D367" s="13" t="s">
+      <c r="D367" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="E367" s="13" t="s">
+      <c r="E367" s="7" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B368" s="4">
+      <c r="A368" s="6"/>
+      <c r="B368" s="6">
         <v>138</v>
       </c>
-      <c r="C368" s="13" t="s">
+      <c r="C368" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="D368" s="13" t="s">
+      <c r="D368" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="E368" s="13" t="s">
+      <c r="E368" s="7" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B369" s="4">
+      <c r="A369" s="6"/>
+      <c r="B369" s="6">
         <v>141</v>
       </c>
-      <c r="C369" s="13" t="s">
+      <c r="C369" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="D369" s="13" t="s">
+      <c r="D369" s="7" t="s">
         <v>1004</v>
       </c>
-      <c r="E369" s="13" t="s">
+      <c r="E369" s="7" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B370" s="4">
+      <c r="A370" s="6"/>
+      <c r="B370" s="6">
         <v>144</v>
       </c>
-      <c r="C370" s="13" t="s">
+      <c r="C370" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="D370" s="13" t="s">
+      <c r="D370" s="7" t="s">
         <v>1007</v>
       </c>
-      <c r="E370" s="13" t="s">
+      <c r="E370" s="7" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B371" s="4">
+      <c r="A371" s="6"/>
+      <c r="B371" s="6">
         <v>147</v>
       </c>
-      <c r="C371" s="13" t="s">
+      <c r="C371" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="D371" s="13" t="s">
+      <c r="D371" s="7" t="s">
         <v>1010</v>
       </c>
-      <c r="E371" s="13" t="s">
+      <c r="E371" s="7" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="B372" s="4">
+      <c r="A372" s="6"/>
+      <c r="B372" s="6">
         <v>150</v>
       </c>
-      <c r="C372" s="13" t="s">
+      <c r="C372" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="D372" s="13" t="s">
+      <c r="D372" s="7" t="s">
         <v>1013</v>
       </c>
-      <c r="E372" s="13" t="s">
+      <c r="E372" s="7" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B373" s="4">
+      <c r="A373" s="6"/>
+      <c r="B373" s="6">
         <v>153</v>
       </c>
-      <c r="C373" s="13" t="s">
+      <c r="C373" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="D373" s="13" t="s">
+      <c r="D373" s="7" t="s">
         <v>1016</v>
       </c>
-      <c r="E373" s="13" t="s">
+      <c r="E373" s="7" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B374" s="4">
+      <c r="A374" s="6"/>
+      <c r="B374" s="6">
         <v>156</v>
       </c>
-      <c r="C374" s="13" t="s">
+      <c r="C374" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="D374" s="13" t="s">
+      <c r="D374" s="7" t="s">
         <v>1019</v>
       </c>
-      <c r="E374" s="13" t="s">
+      <c r="E374" s="7" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B375" s="4">
+      <c r="A375" s="6"/>
+      <c r="B375" s="6">
         <v>159</v>
       </c>
-      <c r="C375" s="13" t="s">
+      <c r="C375" s="7" t="s">
         <v>1021</v>
       </c>
-      <c r="D375" s="13" t="s">
+      <c r="D375" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="E375" s="13" t="s">
+      <c r="E375" s="7" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A376" s="4" t="s">
+      <c r="A376" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B376" s="4">
+      <c r="B376" s="6">
         <v>165</v>
       </c>
-      <c r="C376" s="13" t="s">
+      <c r="C376" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="D376" s="13" t="s">
+      <c r="D376" s="7" t="s">
         <v>1025</v>
       </c>
-      <c r="E376" s="13" t="s">
+      <c r="E376" s="7" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B377" s="4">
+      <c r="A377" s="6"/>
+      <c r="B377" s="6">
         <v>168</v>
       </c>
-      <c r="C377" s="13" t="s">
+      <c r="C377" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="D377" s="13" t="s">
+      <c r="D377" s="7" t="s">
         <v>1028</v>
       </c>
-      <c r="E377" s="13" t="s">
+      <c r="E377" s="7" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B378" s="4">
+      <c r="A378" s="6"/>
+      <c r="B378" s="6">
         <v>171</v>
       </c>
-      <c r="C378" s="13" t="s">
+      <c r="C378" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="D378" s="13" t="s">
+      <c r="D378" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="E378" s="13" t="s">
+      <c r="E378" s="7" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B379" s="4">
+      <c r="A379" s="6"/>
+      <c r="B379" s="6">
         <v>174</v>
       </c>
-      <c r="C379" s="13" t="s">
+      <c r="C379" s="7" t="s">
         <v>1033</v>
       </c>
-      <c r="D379" s="13" t="s">
+      <c r="D379" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="E379" s="13" t="s">
+      <c r="E379" s="7" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B380" s="4">
+      <c r="A380" s="6"/>
+      <c r="B380" s="6">
         <v>177</v>
       </c>
-      <c r="C380" s="13" t="s">
+      <c r="C380" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="D380" s="13" t="s">
+      <c r="D380" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="E380" s="13" t="s">
+      <c r="E380" s="7" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B381" s="4">
+      <c r="A381" s="6"/>
+      <c r="B381" s="6">
         <v>180</v>
       </c>
-      <c r="C381" s="13" t="s">
+      <c r="C381" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="D381" s="13" t="s">
+      <c r="D381" s="7" t="s">
         <v>1040</v>
       </c>
-      <c r="E381" s="13" t="s">
+      <c r="E381" s="7" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B382" s="4">
+      <c r="A382" s="6"/>
+      <c r="B382" s="6">
         <v>183</v>
       </c>
-      <c r="C382" s="13" t="s">
+      <c r="C382" s="7" t="s">
         <v>1042</v>
       </c>
-      <c r="D382" s="13" t="s">
+      <c r="D382" s="7" t="s">
         <v>1043</v>
       </c>
-      <c r="E382" s="13" t="s">
+      <c r="E382" s="7" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B383" s="4">
+      <c r="A383" s="6"/>
+      <c r="B383" s="6">
         <v>186</v>
       </c>
-      <c r="C383" s="13" t="s">
+      <c r="C383" s="7" t="s">
         <v>1045</v>
       </c>
-      <c r="D383" s="13" t="s">
+      <c r="D383" s="7" t="s">
         <v>1046</v>
       </c>
-      <c r="E383" s="13" t="s">
+      <c r="E383" s="7" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B384" s="4">
+      <c r="A384" s="6"/>
+      <c r="B384" s="6">
         <v>189</v>
       </c>
-      <c r="C384" s="13" t="s">
+      <c r="C384" s="7" t="s">
         <v>1048</v>
       </c>
-      <c r="D384" s="13" t="s">
+      <c r="D384" s="7" t="s">
         <v>1049</v>
       </c>
-      <c r="E384" s="13" t="s">
+      <c r="E384" s="7" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B385" s="4">
+      <c r="A385" s="6"/>
+      <c r="B385" s="6">
         <v>192</v>
       </c>
-      <c r="C385" s="13" t="s">
+      <c r="C385" s="7" t="s">
         <v>1051</v>
       </c>
-      <c r="D385" s="13" t="s">
+      <c r="D385" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="E385" s="13" t="s">
+      <c r="E385" s="7" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B386" s="4">
+      <c r="A386" s="6"/>
+      <c r="B386" s="6">
         <v>195</v>
       </c>
-      <c r="C386" s="13" t="s">
+      <c r="C386" s="7" t="s">
         <v>1054</v>
       </c>
-      <c r="D386" s="13" t="s">
+      <c r="D386" s="7" t="s">
         <v>1055</v>
       </c>
-      <c r="E386" s="13" t="s">
+      <c r="E386" s="7" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B387" s="4">
+      <c r="A387" s="6"/>
+      <c r="B387" s="6">
         <v>198</v>
       </c>
-      <c r="C387" s="13" t="s">
+      <c r="C387" s="7" t="s">
         <v>1057</v>
       </c>
-      <c r="D387" s="13" t="s">
+      <c r="D387" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="E387" s="13" t="s">
+      <c r="E387" s="7" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A388" s="4" t="s">
+      <c r="A388" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B388" s="4">
+      <c r="B388" s="6">
         <v>204</v>
       </c>
-      <c r="C388" s="13" t="s">
+      <c r="C388" s="7" t="s">
         <v>1060</v>
       </c>
-      <c r="D388" s="13" t="s">
+      <c r="D388" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="E388" s="13" t="s">
+      <c r="E388" s="7" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B389" s="4">
+      <c r="A389" s="6"/>
+      <c r="B389" s="6">
         <v>207</v>
       </c>
-      <c r="C389" s="13" t="s">
+      <c r="C389" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="D389" s="13" t="s">
+      <c r="D389" s="7" t="s">
         <v>1064</v>
       </c>
-      <c r="E389" s="13" t="s">
+      <c r="E389" s="7" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B390" s="4">
+      <c r="A390" s="6"/>
+      <c r="B390" s="6">
         <v>210</v>
       </c>
-      <c r="C390" s="13" t="s">
+      <c r="C390" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="D390" s="13" t="s">
+      <c r="D390" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="E390" s="13" t="s">
+      <c r="E390" s="7" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B391" s="4">
+      <c r="A391" s="6"/>
+      <c r="B391" s="6">
         <v>213</v>
       </c>
-      <c r="C391" s="13" t="s">
+      <c r="C391" s="7" t="s">
         <v>1069</v>
       </c>
-      <c r="D391" s="13" t="s">
+      <c r="D391" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="E391" s="13" t="s">
+      <c r="E391" s="7" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B392" s="4">
+      <c r="A392" s="6"/>
+      <c r="B392" s="6">
         <v>216</v>
       </c>
-      <c r="C392" s="13" t="s">
+      <c r="C392" s="7" t="s">
         <v>1072</v>
       </c>
-      <c r="D392" s="13" t="s">
+      <c r="D392" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="E392" s="13" t="s">
+      <c r="E392" s="7" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B393" s="4">
+      <c r="A393" s="6"/>
+      <c r="B393" s="6">
         <v>219</v>
       </c>
-      <c r="C393" s="13" t="s">
+      <c r="C393" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="D393" s="13" t="s">
+      <c r="D393" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="E393" s="13" t="s">
+      <c r="E393" s="7" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B394" s="4">
+      <c r="A394" s="6"/>
+      <c r="B394" s="6">
         <v>222</v>
       </c>
-      <c r="C394" s="13" t="s">
+      <c r="C394" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="D394" s="13" t="s">
+      <c r="D394" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="E394" s="13" t="s">
+      <c r="E394" s="7" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B395" s="4">
+      <c r="A395" s="6"/>
+      <c r="B395" s="6">
         <v>225</v>
       </c>
-      <c r="C395" s="13" t="s">
+      <c r="C395" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="D395" s="13" t="s">
+      <c r="D395" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="E395" s="13" t="s">
+      <c r="E395" s="7" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B396" s="4">
+      <c r="A396" s="6"/>
+      <c r="B396" s="6">
         <v>228</v>
       </c>
-      <c r="C396" s="13" t="s">
+      <c r="C396" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="D396" s="13" t="s">
+      <c r="D396" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="E396" s="13" t="s">
+      <c r="E396" s="7" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B397" s="4">
+      <c r="A397" s="6"/>
+      <c r="B397" s="6">
         <v>231</v>
       </c>
-      <c r="C397" s="13" t="s">
+      <c r="C397" s="7" t="s">
         <v>1087</v>
       </c>
-      <c r="D397" s="13" t="s">
+      <c r="D397" s="7" t="s">
         <v>1088</v>
       </c>
-      <c r="E397" s="13" t="s">
+      <c r="E397" s="7" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B398" s="4">
+      <c r="A398" s="6"/>
+      <c r="B398" s="6">
         <v>234</v>
       </c>
-      <c r="C398" s="13" t="s">
+      <c r="C398" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="D398" s="13" t="s">
+      <c r="D398" s="7" t="s">
         <v>1091</v>
       </c>
-      <c r="E398" s="13" t="s">
+      <c r="E398" s="7" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B399" s="4">
+      <c r="A399" s="6"/>
+      <c r="B399" s="6">
         <v>237</v>
       </c>
-      <c r="C399" s="13" t="s">
+      <c r="C399" s="7" t="s">
         <v>1093</v>
       </c>
-      <c r="D399" s="13" t="s">
+      <c r="D399" s="7" t="s">
         <v>1094</v>
       </c>
-      <c r="E399" s="13" t="s">
+      <c r="E399" s="7" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B400" s="4">
+      <c r="A400" s="6"/>
+      <c r="B400" s="6">
         <v>240</v>
       </c>
-      <c r="C400" s="13" t="s">
+      <c r="C400" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="D400" s="13" t="s">
+      <c r="D400" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="E400" s="13" t="s">
+      <c r="E400" s="7" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A401" s="4" t="s">
+      <c r="A401" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B401" s="4">
+      <c r="B401" s="6">
         <v>246</v>
       </c>
-      <c r="C401" s="13" t="s">
+      <c r="C401" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="D401" s="13" t="s">
+      <c r="D401" s="7" t="s">
         <v>1100</v>
       </c>
-      <c r="E401" s="13" t="s">
+      <c r="E401" s="7" t="s">
         <v>1101</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B402" s="4">
+      <c r="A402" s="6"/>
+      <c r="B402" s="6">
         <v>249</v>
       </c>
-      <c r="C402" s="13" t="s">
+      <c r="C402" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="D402" s="13" t="s">
+      <c r="D402" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="E402" s="13" t="s">
+      <c r="E402" s="7" t="s">
         <v>1104</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B403" s="4">
+      <c r="A403" s="6"/>
+      <c r="B403" s="6">
         <v>252</v>
       </c>
-      <c r="C403" s="13" t="s">
+      <c r="C403" s="7" t="s">
         <v>1105</v>
       </c>
-      <c r="D403" s="13" t="s">
+      <c r="D403" s="7" t="s">
         <v>1106</v>
       </c>
-      <c r="E403" s="13" t="s">
+      <c r="E403" s="7" t="s">
         <v>1107</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B404" s="4">
+      <c r="A404" s="6"/>
+      <c r="B404" s="6">
         <v>255</v>
       </c>
-      <c r="C404" s="13" t="s">
+      <c r="C404" s="7" t="s">
         <v>1108</v>
       </c>
-      <c r="D404" s="13" t="s">
+      <c r="D404" s="7" t="s">
         <v>1109</v>
       </c>
-      <c r="E404" s="13" t="s">
+      <c r="E404" s="7" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B405" s="4">
+      <c r="A405" s="6"/>
+      <c r="B405" s="6">
         <v>258</v>
       </c>
-      <c r="C405" s="13" t="s">
+      <c r="C405" s="7" t="s">
         <v>1111</v>
       </c>
-      <c r="D405" s="13" t="s">
+      <c r="D405" s="7" t="s">
         <v>1112</v>
       </c>
-      <c r="E405" s="13" t="s">
+      <c r="E405" s="7" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B406" s="4">
+      <c r="A406" s="6"/>
+      <c r="B406" s="6">
         <v>261</v>
       </c>
-      <c r="C406" s="13" t="s">
+      <c r="C406" s="7" t="s">
         <v>1114</v>
       </c>
-      <c r="D406" s="13" t="s">
+      <c r="D406" s="7" t="s">
         <v>1115</v>
       </c>
-      <c r="E406" s="13" t="s">
+      <c r="E406" s="7" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A407" s="4" t="s">
+      <c r="A407" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B407" s="4">
+      <c r="B407" s="6">
         <v>267</v>
       </c>
-      <c r="C407" s="13" t="s">
+      <c r="C407" s="7" t="s">
         <v>1117</v>
       </c>
-      <c r="D407" s="13" t="s">
+      <c r="D407" s="7" t="s">
         <v>1118</v>
       </c>
-      <c r="E407" s="13" t="s">
+      <c r="E407" s="7" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="408" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B408" s="4">
+      <c r="A408" s="6"/>
+      <c r="B408" s="6">
         <v>270</v>
       </c>
-      <c r="C408" s="13" t="s">
+      <c r="C408" s="7" t="s">
         <v>1120</v>
       </c>
-      <c r="D408" s="13" t="s">
+      <c r="D408" s="7" t="s">
         <v>1121</v>
       </c>
-      <c r="E408" s="13" t="s">
+      <c r="E408" s="7" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="B409" s="4">
+      <c r="A409" s="6"/>
+      <c r="B409" s="6">
         <v>273</v>
       </c>
-      <c r="C409" s="13" t="s">
+      <c r="C409" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="D409" s="13" t="s">
+      <c r="D409" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="E409" s="13" t="s">
+      <c r="E409" s="7" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B410" s="4">
+      <c r="A410" s="6"/>
+      <c r="B410" s="6">
         <v>276</v>
       </c>
-      <c r="C410" s="13" t="s">
+      <c r="C410" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="D410" s="13" t="s">
+      <c r="D410" s="7" t="s">
         <v>1127</v>
       </c>
-      <c r="E410" s="13" t="s">
+      <c r="E410" s="7" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B411" s="4">
+      <c r="A411" s="6"/>
+      <c r="B411" s="6">
         <v>279</v>
       </c>
-      <c r="C411" s="13" t="s">
+      <c r="C411" s="7" t="s">
         <v>1129</v>
       </c>
-      <c r="D411" s="13" t="s">
+      <c r="D411" s="7" t="s">
         <v>1130</v>
       </c>
-      <c r="E411" s="13" t="s">
+      <c r="E411" s="7" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B412" s="4">
+      <c r="A412" s="6"/>
+      <c r="B412" s="6">
         <v>282</v>
       </c>
-      <c r="C412" s="13" t="s">
+      <c r="C412" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="D412" s="13" t="s">
+      <c r="D412" s="7" t="s">
         <v>1133</v>
       </c>
-      <c r="E412" s="13" t="s">
+      <c r="E412" s="7" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="413" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B413" s="4">
+      <c r="A413" s="6"/>
+      <c r="B413" s="6">
         <v>288</v>
       </c>
-      <c r="C413" s="13" t="s">
+      <c r="C413" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="D413" s="13" t="s">
+      <c r="D413" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="E413" s="13" t="s">
+      <c r="E413" s="7" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="414" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B414" s="4">
+      <c r="A414" s="6"/>
+      <c r="B414" s="6">
         <v>291</v>
       </c>
-      <c r="C414" s="13" t="s">
+      <c r="C414" s="7" t="s">
         <v>1138</v>
       </c>
-      <c r="D414" s="13" t="s">
+      <c r="D414" s="7" t="s">
         <v>1139</v>
       </c>
-      <c r="E414" s="13" t="s">
+      <c r="E414" s="7" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B415" s="4">
+      <c r="A415" s="6"/>
+      <c r="B415" s="6">
         <v>294</v>
       </c>
-      <c r="C415" s="13" t="s">
+      <c r="C415" s="7" t="s">
         <v>1141</v>
       </c>
-      <c r="D415" s="13" t="s">
+      <c r="D415" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="E415" s="13" t="s">
+      <c r="E415" s="7" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="416" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B416" s="4">
+      <c r="A416" s="6"/>
+      <c r="B416" s="6">
         <v>297</v>
       </c>
-      <c r="C416" s="13" t="s">
+      <c r="C416" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="D416" s="13" t="s">
+      <c r="D416" s="7" t="s">
         <v>1145</v>
       </c>
-      <c r="E416" s="13" t="s">
+      <c r="E416" s="7" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B417" s="4">
+      <c r="A417" s="6"/>
+      <c r="B417" s="6">
         <v>300</v>
       </c>
-      <c r="C417" s="13" t="s">
+      <c r="C417" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="D417" s="13" t="s">
+      <c r="D417" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="E417" s="13" t="s">
+      <c r="E417" s="7" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B418" s="4">
+      <c r="A418" s="6"/>
+      <c r="B418" s="6">
         <v>303</v>
       </c>
-      <c r="C418" s="13" t="s">
+      <c r="C418" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="D418" s="13" t="s">
+      <c r="D418" s="7" t="s">
         <v>1151</v>
       </c>
-      <c r="E418" s="13" t="s">
+      <c r="E418" s="7" t="s">
         <v>1152</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B419" s="4">
+      <c r="A419" s="6"/>
+      <c r="B419" s="6">
         <v>306</v>
       </c>
-      <c r="C419" s="13" t="s">
+      <c r="C419" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="D419" s="13" t="s">
+      <c r="D419" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="E419" s="13" t="s">
+      <c r="E419" s="7" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B420" s="4">
+      <c r="A420" s="6"/>
+      <c r="B420" s="6">
         <v>309</v>
       </c>
-      <c r="C420" s="13" t="s">
+      <c r="C420" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="D420" s="13" t="s">
+      <c r="D420" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="E420" s="13" t="s">
+      <c r="E420" s="7" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B421" s="4">
+      <c r="A421" s="6"/>
+      <c r="B421" s="6">
         <v>312</v>
       </c>
-      <c r="C421" s="13" t="s">
+      <c r="C421" s="7" t="s">
         <v>1159</v>
       </c>
-      <c r="D421" s="13" t="s">
+      <c r="D421" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="E421" s="13" t="s">
+      <c r="E421" s="7" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A422" s="4" t="s">
+      <c r="A422" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B422" s="4">
+      <c r="B422" s="6">
         <v>318</v>
       </c>
-      <c r="C422" s="13" t="s">
+      <c r="C422" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="D422" s="13" t="s">
+      <c r="D422" s="7" t="s">
         <v>1163</v>
       </c>
-      <c r="E422" s="13" t="s">
+      <c r="E422" s="7" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B423" s="4">
+      <c r="A423" s="6"/>
+      <c r="B423" s="6">
         <v>321</v>
       </c>
-      <c r="C423" s="13" t="s">
+      <c r="C423" s="7" t="s">
         <v>1165</v>
       </c>
-      <c r="D423" s="13" t="s">
+      <c r="D423" s="7" t="s">
         <v>1166</v>
       </c>
-      <c r="E423" s="13" t="s">
+      <c r="E423" s="7" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B424" s="4">
+      <c r="A424" s="6"/>
+      <c r="B424" s="6">
         <v>324</v>
       </c>
-      <c r="C424" s="13" t="s">
+      <c r="C424" s="7" t="s">
         <v>1168</v>
       </c>
-      <c r="D424" s="13" t="s">
+      <c r="D424" s="7" t="s">
         <v>1169</v>
       </c>
-      <c r="E424" s="13" t="s">
+      <c r="E424" s="7" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B425" s="4">
+      <c r="A425" s="6"/>
+      <c r="B425" s="6">
         <v>327</v>
       </c>
-      <c r="C425" s="13" t="s">
+      <c r="C425" s="7" t="s">
         <v>1171</v>
       </c>
-      <c r="D425" s="13" t="s">
+      <c r="D425" s="7" t="s">
         <v>1172</v>
       </c>
-      <c r="E425" s="13" t="s">
+      <c r="E425" s="7" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B426" s="4">
+      <c r="A426" s="6"/>
+      <c r="B426" s="6">
         <v>330</v>
       </c>
-      <c r="C426" s="13" t="s">
+      <c r="C426" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="D426" s="13" t="s">
+      <c r="D426" s="7" t="s">
         <v>1175</v>
       </c>
-      <c r="E426" s="13" t="s">
+      <c r="E426" s="7" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B427" s="4">
+      <c r="A427" s="6"/>
+      <c r="B427" s="6">
         <v>333</v>
       </c>
-      <c r="C427" s="13" t="s">
+      <c r="C427" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="D427" s="13" t="s">
+      <c r="D427" s="7" t="s">
         <v>1178</v>
       </c>
-      <c r="E427" s="13" t="s">
+      <c r="E427" s="7" t="s">
         <v>1179</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B428" s="4">
+      <c r="A428" s="6"/>
+      <c r="B428" s="6">
         <v>336</v>
       </c>
-      <c r="C428" s="13" t="s">
+      <c r="C428" s="7" t="s">
         <v>1180</v>
       </c>
-      <c r="D428" s="13" t="s">
+      <c r="D428" s="7" t="s">
         <v>1181</v>
       </c>
-      <c r="E428" s="13" t="s">
+      <c r="E428" s="7" t="s">
         <v>1182</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A429" s="4" t="s">
+      <c r="A429" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B429" s="4">
+      <c r="B429" s="6">
         <v>342</v>
       </c>
-      <c r="C429" s="13" t="s">
+      <c r="C429" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="D429" s="13" t="s">
+      <c r="D429" s="7" t="s">
         <v>1184</v>
       </c>
-      <c r="E429" s="13" t="s">
+      <c r="E429" s="7" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B430" s="4">
+      <c r="A430" s="6"/>
+      <c r="B430" s="6">
         <v>345</v>
       </c>
-      <c r="C430" s="13" t="s">
+      <c r="C430" s="7" t="s">
         <v>1186</v>
       </c>
-      <c r="D430" s="13" t="s">
+      <c r="D430" s="7" t="s">
         <v>1187</v>
       </c>
-      <c r="E430" s="13" t="s">
+      <c r="E430" s="7" t="s">
         <v>1188</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B431" s="4">
+      <c r="A431" s="6"/>
+      <c r="B431" s="6">
         <v>348</v>
       </c>
-      <c r="C431" s="13" t="s">
+      <c r="C431" s="7" t="s">
         <v>1189</v>
       </c>
-      <c r="D431" s="13" t="s">
+      <c r="D431" s="7" t="s">
         <v>1190</v>
       </c>
-      <c r="E431" s="13" t="s">
+      <c r="E431" s="7" t="s">
         <v>1191</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B432" s="4">
+      <c r="A432" s="6"/>
+      <c r="B432" s="6">
         <v>351</v>
       </c>
-      <c r="C432" s="13" t="s">
+      <c r="C432" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="D432" s="13" t="s">
+      <c r="D432" s="7" t="s">
         <v>1193</v>
       </c>
-      <c r="E432" s="13" t="s">
+      <c r="E432" s="7" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B433" s="4">
+      <c r="A433" s="6"/>
+      <c r="B433" s="6">
         <v>354</v>
       </c>
-      <c r="C433" s="13" t="s">
+      <c r="C433" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="D433" s="13" t="s">
+      <c r="D433" s="7" t="s">
         <v>1196</v>
       </c>
-      <c r="E433" s="13" t="s">
+      <c r="E433" s="7" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B434" s="4">
+      <c r="A434" s="6"/>
+      <c r="B434" s="6">
         <v>357</v>
       </c>
-      <c r="C434" s="13" t="s">
+      <c r="C434" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="D434" s="13" t="s">
+      <c r="D434" s="7" t="s">
         <v>1199</v>
       </c>
-      <c r="E434" s="13" t="s">
+      <c r="E434" s="7" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B435" s="4">
+      <c r="A435" s="6"/>
+      <c r="B435" s="6">
         <v>360</v>
       </c>
-      <c r="C435" s="13" t="s">
+      <c r="C435" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="D435" s="13" t="s">
+      <c r="D435" s="7" t="s">
         <v>1202</v>
       </c>
-      <c r="E435" s="13" t="s">
+      <c r="E435" s="7" t="s">
         <v>1203</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A436" s="4" t="s">
+      <c r="A436" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B436" s="4">
+      <c r="B436" s="6">
         <v>366</v>
       </c>
-      <c r="C436" s="13" t="s">
+      <c r="C436" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="D436" s="13" t="s">
+      <c r="D436" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="E436" s="13" t="s">
+      <c r="E436" s="7" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B437" s="4">
+      <c r="A437" s="6"/>
+      <c r="B437" s="6">
         <v>369</v>
       </c>
-      <c r="C437" s="13" t="s">
+      <c r="C437" s="7" t="s">
         <v>1207</v>
       </c>
-      <c r="D437" s="13" t="s">
+      <c r="D437" s="7" t="s">
         <v>1208</v>
       </c>
-      <c r="E437" s="13" t="s">
+      <c r="E437" s="7" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B438" s="4">
+      <c r="A438" s="6"/>
+      <c r="B438" s="6">
         <v>372</v>
       </c>
-      <c r="C438" s="13" t="s">
+      <c r="C438" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="D438" s="13" t="s">
+      <c r="D438" s="7" t="s">
         <v>1211</v>
       </c>
-      <c r="E438" s="13" t="s">
+      <c r="E438" s="7" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B439" s="4">
+      <c r="A439" s="6"/>
+      <c r="B439" s="6">
         <v>375</v>
       </c>
-      <c r="C439" s="13" t="s">
+      <c r="C439" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="D439" s="13" t="s">
+      <c r="D439" s="7" t="s">
         <v>1214</v>
       </c>
-      <c r="E439" s="13" t="s">
+      <c r="E439" s="7" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B440" s="4">
+      <c r="A440" s="6"/>
+      <c r="B440" s="6">
         <v>378</v>
       </c>
-      <c r="C440" s="13" t="s">
+      <c r="C440" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="D440" s="13" t="s">
+      <c r="D440" s="7" t="s">
         <v>1217</v>
       </c>
-      <c r="E440" s="13" t="s">
+      <c r="E440" s="7" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B441" s="4">
+      <c r="A441" s="6"/>
+      <c r="B441" s="6">
         <v>381</v>
       </c>
-      <c r="C441" s="13" t="s">
+      <c r="C441" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="D441" s="13" t="s">
+      <c r="D441" s="7" t="s">
         <v>1220</v>
       </c>
-      <c r="E441" s="13" t="s">
+      <c r="E441" s="7" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B442" s="4">
+      <c r="A442" s="6"/>
+      <c r="B442" s="6">
         <v>384</v>
       </c>
-      <c r="C442" s="13" t="s">
+      <c r="C442" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="D442" s="13" t="s">
+      <c r="D442" s="7" t="s">
         <v>1223</v>
       </c>
-      <c r="E442" s="13" t="s">
+      <c r="E442" s="7" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B443" s="4">
+      <c r="A443" s="6"/>
+      <c r="B443" s="6">
         <v>387</v>
       </c>
-      <c r="C443" s="13" t="s">
+      <c r="C443" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="D443" s="13" t="s">
+      <c r="D443" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="E443" s="13" t="s">
+      <c r="E443" s="7" t="s">
         <v>1227</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A444" s="4" t="s">
+      <c r="A444" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B444" s="4">
+      <c r="B444" s="6">
         <v>393</v>
       </c>
-      <c r="C444" s="13" t="s">
+      <c r="C444" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="D444" s="13" t="s">
+      <c r="D444" s="7" t="s">
         <v>1229</v>
       </c>
-      <c r="E444" s="13" t="s">
+      <c r="E444" s="7" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B445" s="4">
+      <c r="A445" s="6"/>
+      <c r="B445" s="6">
         <v>396</v>
       </c>
-      <c r="C445" s="13" t="s">
+      <c r="C445" s="7" t="s">
         <v>1231</v>
       </c>
-      <c r="D445" s="13" t="s">
+      <c r="D445" s="7" t="s">
         <v>1232</v>
       </c>
-      <c r="E445" s="13" t="s">
+      <c r="E445" s="7" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B446" s="4">
+      <c r="A446" s="6"/>
+      <c r="B446" s="6">
         <v>399</v>
       </c>
-      <c r="C446" s="13" t="s">
+      <c r="C446" s="7" t="s">
         <v>1234</v>
       </c>
-      <c r="D446" s="13" t="s">
+      <c r="D446" s="7" t="s">
         <v>1235</v>
       </c>
-      <c r="E446" s="13" t="s">
+      <c r="E446" s="7" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B447" s="4">
+      <c r="A447" s="6"/>
+      <c r="B447" s="6">
         <v>402</v>
       </c>
-      <c r="C447" s="13" t="s">
+      <c r="C447" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="D447" s="13" t="s">
+      <c r="D447" s="7" t="s">
         <v>1238</v>
       </c>
-      <c r="E447" s="13" t="s">
+      <c r="E447" s="7" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B448" s="4">
+      <c r="A448" s="6"/>
+      <c r="B448" s="6">
         <v>405</v>
       </c>
-      <c r="C448" s="13" t="s">
+      <c r="C448" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="D448" s="13" t="s">
+      <c r="D448" s="7" t="s">
         <v>1241</v>
       </c>
-      <c r="E448" s="13" t="s">
+      <c r="E448" s="7" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="449" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B449" s="4">
+      <c r="A449" s="6"/>
+      <c r="B449" s="6">
         <v>408</v>
       </c>
-      <c r="C449" s="13" t="s">
+      <c r="C449" s="7" t="s">
         <v>1243</v>
       </c>
-      <c r="D449" s="13" t="s">
+      <c r="D449" s="7" t="s">
         <v>1244</v>
       </c>
-      <c r="E449" s="13" t="s">
+      <c r="E449" s="7" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="450" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A450" s="4" t="s">
+      <c r="A450" s="6" t="s">
         <v>1247</v>
       </c>
-      <c r="B450" s="4">
+      <c r="B450" s="6">
         <v>414</v>
       </c>
-      <c r="C450" s="13" t="s">
+      <c r="C450" s="7" t="s">
         <v>1246</v>
       </c>
-      <c r="D450" s="13" t="s">
+      <c r="D450" s="7" t="s">
         <v>1248</v>
       </c>
-      <c r="E450" s="13" t="s">
+      <c r="E450" s="7" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B451" s="4">
+      <c r="A451" s="6"/>
+      <c r="B451" s="6">
         <v>417</v>
       </c>
-      <c r="C451" s="13" t="s">
+      <c r="C451" s="7" t="s">
         <v>1250</v>
       </c>
-      <c r="D451" s="13" t="s">
+      <c r="D451" s="7" t="s">
         <v>1251</v>
       </c>
-      <c r="E451" s="13" t="s">
+      <c r="E451" s="7" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B452" s="4">
+      <c r="A452" s="6"/>
+      <c r="B452" s="6">
         <v>420</v>
       </c>
-      <c r="C452" s="13" t="s">
+      <c r="C452" s="7" t="s">
         <v>1253</v>
       </c>
-      <c r="D452" s="13" t="s">
+      <c r="D452" s="7" t="s">
         <v>1254</v>
       </c>
-      <c r="E452" s="13" t="s">
+      <c r="E452" s="7" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B453" s="4">
+      <c r="A453" s="6"/>
+      <c r="B453" s="6">
         <v>423</v>
       </c>
-      <c r="C453" s="13" t="s">
+      <c r="C453" s="7" t="s">
         <v>1256</v>
       </c>
-      <c r="D453" s="13" t="s">
+      <c r="D453" s="7" t="s">
         <v>1257</v>
       </c>
-      <c r="E453" s="13" t="s">
+      <c r="E453" s="7" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B454" s="4">
+      <c r="A454" s="6"/>
+      <c r="B454" s="6">
         <v>426</v>
       </c>
-      <c r="C454" s="13" t="s">
+      <c r="C454" s="7" t="s">
         <v>1259</v>
       </c>
-      <c r="D454" s="13" t="s">
+      <c r="D454" s="7" t="s">
         <v>1260</v>
       </c>
-      <c r="E454" s="13" t="s">
+      <c r="E454" s="7" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B455" s="4">
+      <c r="A455" s="6"/>
+      <c r="B455" s="6">
         <v>429</v>
       </c>
-      <c r="C455" s="13" t="s">
+      <c r="C455" s="7" t="s">
         <v>1262</v>
       </c>
-      <c r="D455" s="13" t="s">
+      <c r="D455" s="7" t="s">
         <v>1263</v>
       </c>
-      <c r="E455" s="13" t="s">
+      <c r="E455" s="7" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B456" s="4">
+      <c r="A456" s="6"/>
+      <c r="B456" s="6">
         <v>432</v>
       </c>
-      <c r="C456" s="13" t="s">
+      <c r="C456" s="7" t="s">
         <v>1265</v>
       </c>
-      <c r="D456" s="13" t="s">
+      <c r="D456" s="7" t="s">
         <v>1266</v>
       </c>
-      <c r="E456" s="13" t="s">
+      <c r="E456" s="7" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B457" s="4">
+      <c r="A457" s="6"/>
+      <c r="B457" s="6">
         <v>435</v>
       </c>
-      <c r="C457" s="13" t="s">
+      <c r="C457" s="7" t="s">
         <v>1268</v>
       </c>
-      <c r="D457" s="13" t="s">
+      <c r="D457" s="7" t="s">
         <v>1269</v>
       </c>
-      <c r="E457" s="13" t="s">
+      <c r="E457" s="7" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B458" s="4">
+      <c r="A458" s="6"/>
+      <c r="B458" s="6">
         <v>438</v>
       </c>
-      <c r="C458" s="13" t="s">
+      <c r="C458" s="7" t="s">
         <v>1271</v>
       </c>
-      <c r="D458" s="13" t="s">
+      <c r="D458" s="7" t="s">
         <v>1272</v>
       </c>
-      <c r="E458" s="13" t="s">
+      <c r="E458" s="7" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B459" s="4">
+      <c r="A459" s="6"/>
+      <c r="B459" s="6">
         <v>441</v>
       </c>
-      <c r="C459" s="13" t="s">
+      <c r="C459" s="7" t="s">
         <v>1274</v>
       </c>
-      <c r="D459" s="13" t="s">
+      <c r="D459" s="7" t="s">
         <v>1275</v>
       </c>
-      <c r="E459" s="13" t="s">
+      <c r="E459" s="7" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B460" s="4">
+      <c r="A460" s="6"/>
+      <c r="B460" s="6">
         <v>444</v>
       </c>
-      <c r="C460" s="13" t="s">
+      <c r="C460" s="7" t="s">
         <v>1277</v>
       </c>
-      <c r="D460" s="13" t="s">
+      <c r="D460" s="7" t="s">
         <v>1278</v>
       </c>
-      <c r="E460" s="13" t="s">
+      <c r="E460" s="7" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="461" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A461" s="4" t="s">
+      <c r="A461" s="6" t="s">
         <v>1281</v>
       </c>
-      <c r="B461" s="4">
+      <c r="B461" s="6">
         <v>450</v>
       </c>
-      <c r="C461" s="13" t="s">
+      <c r="C461" s="7" t="s">
         <v>1280</v>
       </c>
-      <c r="D461" s="13" t="s">
+      <c r="D461" s="7" t="s">
         <v>1282</v>
       </c>
-      <c r="E461" s="13" t="s">
+      <c r="E461" s="7" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B462" s="4">
+      <c r="A462" s="6"/>
+      <c r="B462" s="6">
         <v>453</v>
       </c>
-      <c r="C462" s="13" t="s">
+      <c r="C462" s="7" t="s">
         <v>1284</v>
       </c>
-      <c r="D462" s="13" t="s">
+      <c r="D462" s="7" t="s">
         <v>1285</v>
       </c>
-      <c r="E462" s="13" t="s">
+      <c r="E462" s="7" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B463" s="4">
+      <c r="A463" s="6"/>
+      <c r="B463" s="6">
         <v>456</v>
       </c>
-      <c r="C463" s="13" t="s">
+      <c r="C463" s="7" t="s">
         <v>1287</v>
       </c>
-      <c r="D463" s="13" t="s">
+      <c r="D463" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="E463" s="13" t="s">
+      <c r="E463" s="7" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B464" s="4">
+      <c r="A464" s="6"/>
+      <c r="B464" s="6">
         <v>459</v>
       </c>
-      <c r="C464" s="13" t="s">
+      <c r="C464" s="7" t="s">
         <v>1290</v>
       </c>
-      <c r="D464" s="13" t="s">
+      <c r="D464" s="7" t="s">
         <v>1291</v>
       </c>
-      <c r="E464" s="13" t="s">
+      <c r="E464" s="7" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B465" s="4">
+      <c r="A465" s="6"/>
+      <c r="B465" s="6">
         <v>462</v>
       </c>
-      <c r="C465" s="13" t="s">
+      <c r="C465" s="7" t="s">
         <v>1293</v>
       </c>
-      <c r="D465" s="13" t="s">
+      <c r="D465" s="7" t="s">
         <v>1294</v>
       </c>
-      <c r="E465" s="13" t="s">
+      <c r="E465" s="7" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="466" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="B466" s="4">
+      <c r="A466" s="6"/>
+      <c r="B466" s="6">
         <v>465</v>
       </c>
-      <c r="C466" s="13" t="s">
+      <c r="C466" s="7" t="s">
         <v>1296</v>
       </c>
-      <c r="D466" s="13" t="s">
+      <c r="D466" s="7" t="s">
         <v>1297</v>
       </c>
-      <c r="E466" s="13" t="s">
+      <c r="E466" s="7" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B467" s="4">
+      <c r="A467" s="6"/>
+      <c r="B467" s="6">
         <v>468</v>
       </c>
-      <c r="C467" s="13" t="s">
+      <c r="C467" s="7" t="s">
         <v>1299</v>
       </c>
-      <c r="D467" s="13" t="s">
+      <c r="D467" s="7" t="s">
         <v>1300</v>
       </c>
-      <c r="E467" s="13" t="s">
+      <c r="E467" s="7" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A468" s="4" t="s">
+      <c r="A468" s="6" t="s">
         <v>1312</v>
       </c>
-      <c r="B468" s="4">
+      <c r="B468" s="6">
         <v>474</v>
       </c>
-      <c r="C468" s="13" t="s">
+      <c r="C468" s="7" t="s">
         <v>1302</v>
       </c>
-      <c r="D468" s="13" t="s">
+      <c r="D468" s="7" t="s">
         <v>1303</v>
       </c>
-      <c r="E468" s="13" t="s">
+      <c r="E468" s="7" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B469" s="4">
+      <c r="A469" s="6"/>
+      <c r="B469" s="6">
         <v>477</v>
       </c>
-      <c r="C469" s="13" t="s">
+      <c r="C469" s="7" t="s">
         <v>1305</v>
       </c>
-      <c r="D469" s="13" t="s">
+      <c r="D469" s="7" t="s">
         <v>1306</v>
       </c>
-      <c r="E469" s="13" t="s">
+      <c r="E469" s="7" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B470" s="4">
+      <c r="A470" s="6"/>
+      <c r="B470" s="6">
         <v>480</v>
       </c>
-      <c r="C470" s="13" t="s">
+      <c r="C470" s="7" t="s">
         <v>1308</v>
       </c>
-      <c r="D470" s="13" t="s">
+      <c r="D470" s="7" t="s">
         <v>1309</v>
       </c>
-      <c r="E470" s="13" t="s">
+      <c r="E470" s="7" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B471" s="4">
+      <c r="A471" s="6"/>
+      <c r="B471" s="6">
         <v>483</v>
       </c>
-      <c r="C471" s="13" t="s">
+      <c r="C471" s="7" t="s">
         <v>1311</v>
       </c>
-      <c r="D471" s="13" t="s">
+      <c r="D471" s="7" t="s">
         <v>1313</v>
       </c>
-      <c r="E471" s="13" t="s">
+      <c r="E471" s="7" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="472" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B472" s="4">
+      <c r="A472" s="6"/>
+      <c r="B472" s="6">
         <v>486</v>
       </c>
-      <c r="C472" s="13" t="s">
+      <c r="C472" s="7" t="s">
         <v>1315</v>
       </c>
-      <c r="D472" s="13" t="s">
+      <c r="D472" s="7" t="s">
         <v>1316</v>
       </c>
-      <c r="E472" s="13" t="s">
+      <c r="E472" s="7" t="s">
         <v>1317</v>
       </c>
     </row>
     <row r="473" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B473" s="4">
+      <c r="A473" s="6"/>
+      <c r="B473" s="6">
         <v>489</v>
       </c>
-      <c r="C473" s="13" t="s">
+      <c r="C473" s="7" t="s">
         <v>1318</v>
       </c>
-      <c r="D473" s="13" t="s">
+      <c r="D473" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="E473" s="13" t="s">
+      <c r="E473" s="7" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="474" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B474" s="4">
+      <c r="A474" s="6"/>
+      <c r="B474" s="6">
         <v>492</v>
       </c>
-      <c r="C474" s="13" t="s">
+      <c r="C474" s="7" t="s">
         <v>1321</v>
       </c>
-      <c r="D474" s="13" t="s">
+      <c r="D474" s="7" t="s">
         <v>1322</v>
       </c>
-      <c r="E474" s="13" t="s">
+      <c r="E474" s="7" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="475" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B475" s="4">
+      <c r="A475" s="6"/>
+      <c r="B475" s="6">
         <v>495</v>
       </c>
-      <c r="C475" s="13" t="s">
+      <c r="C475" s="7" t="s">
         <v>1324</v>
       </c>
-      <c r="D475" s="13" t="s">
+      <c r="D475" s="7" t="s">
         <v>1325</v>
       </c>
-      <c r="E475" s="13" t="s">
+      <c r="E475" s="7" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B476" s="4">
+      <c r="A476" s="6"/>
+      <c r="B476" s="6">
         <v>498</v>
       </c>
-      <c r="C476" s="13" t="s">
+      <c r="C476" s="7" t="s">
         <v>1327</v>
       </c>
-      <c r="D476" s="13" t="s">
+      <c r="D476" s="7" t="s">
         <v>1328</v>
       </c>
-      <c r="E476" s="13" t="s">
+      <c r="E476" s="7" t="s">
         <v>1329</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A477" s="4" t="s">
+      <c r="A477" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="B477" s="4">
+      <c r="B477" s="6">
         <v>504</v>
       </c>
-      <c r="C477" s="13" t="s">
+      <c r="C477" s="7" t="s">
         <v>1330</v>
       </c>
-      <c r="D477" s="13" t="s">
+      <c r="D477" s="7" t="s">
         <v>1331</v>
       </c>
-      <c r="E477" s="13" t="s">
+      <c r="E477" s="7" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B478" s="4">
+      <c r="A478" s="6"/>
+      <c r="B478" s="6">
         <v>507</v>
       </c>
-      <c r="C478" s="13" t="s">
+      <c r="C478" s="7" t="s">
         <v>1333</v>
       </c>
-      <c r="D478" s="13" t="s">
+      <c r="D478" s="7" t="s">
         <v>1334</v>
       </c>
-      <c r="E478" s="13" t="s">
+      <c r="E478" s="7" t="s">
         <v>1335</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B479" s="4">
+      <c r="A479" s="6"/>
+      <c r="B479" s="6">
         <v>510</v>
       </c>
-      <c r="C479" s="13" t="s">
+      <c r="C479" s="7" t="s">
         <v>1336</v>
       </c>
-      <c r="D479" s="13" t="s">
+      <c r="D479" s="7" t="s">
         <v>1337</v>
       </c>
-      <c r="E479" s="13" t="s">
+      <c r="E479" s="7" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B480" s="4">
+      <c r="A480" s="6"/>
+      <c r="B480" s="6">
         <v>513</v>
       </c>
-      <c r="C480" s="13" t="s">
+      <c r="C480" s="7" t="s">
         <v>1339</v>
       </c>
-      <c r="D480" s="13" t="s">
+      <c r="D480" s="7" t="s">
         <v>1340</v>
       </c>
-      <c r="E480" s="13" t="s">
+      <c r="E480" s="7" t="s">
         <v>1341</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B481" s="4">
+      <c r="A481" s="6"/>
+      <c r="B481" s="6">
         <v>516</v>
       </c>
-      <c r="C481" s="13" t="s">
+      <c r="C481" s="7" t="s">
         <v>1342</v>
       </c>
-      <c r="D481" s="13" t="s">
+      <c r="D481" s="7" t="s">
         <v>1343</v>
       </c>
-      <c r="E481" s="13" t="s">
+      <c r="E481" s="7" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B482" s="4">
+      <c r="A482" s="6"/>
+      <c r="B482" s="6">
         <v>519</v>
       </c>
-      <c r="C482" s="13" t="s">
+      <c r="C482" s="7" t="s">
         <v>1345</v>
       </c>
-      <c r="D482" s="13" t="s">
+      <c r="D482" s="7" t="s">
         <v>1346</v>
       </c>
-      <c r="E482" s="13" t="s">
+      <c r="E482" s="7" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B483" s="4">
+      <c r="A483" s="6"/>
+      <c r="B483" s="6">
         <v>522</v>
       </c>
-      <c r="C483" s="13" t="s">
+      <c r="C483" s="7" t="s">
         <v>1348</v>
       </c>
-      <c r="D483" s="13" t="s">
+      <c r="D483" s="7" t="s">
         <v>1349</v>
       </c>
-      <c r="E483" s="13" t="s">
+      <c r="E483" s="7" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="484" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B484" s="4">
+      <c r="A484" s="6"/>
+      <c r="B484" s="6">
         <v>525</v>
       </c>
-      <c r="C484" s="13" t="s">
+      <c r="C484" s="7" t="s">
         <v>1351</v>
       </c>
-      <c r="D484" s="13" t="s">
+      <c r="D484" s="7" t="s">
         <v>1352</v>
       </c>
-      <c r="E484" s="13" t="s">
+      <c r="E484" s="7" t="s">
         <v>1353</v>
       </c>
     </row>
     <row r="485" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B485" s="4">
+      <c r="A485" s="6"/>
+      <c r="B485" s="6">
         <v>528</v>
       </c>
-      <c r="C485" s="13" t="s">
+      <c r="C485" s="7" t="s">
         <v>1354</v>
       </c>
-      <c r="D485" s="13" t="s">
+      <c r="D485" s="7" t="s">
         <v>1355</v>
       </c>
-      <c r="E485" s="13" t="s">
+      <c r="E485" s="7" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="486" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B486" s="4">
+      <c r="A486" s="6"/>
+      <c r="B486" s="6">
         <v>531</v>
       </c>
-      <c r="C486" s="13" t="s">
+      <c r="C486" s="7" t="s">
         <v>1357</v>
       </c>
-      <c r="D486" s="13" t="s">
+      <c r="D486" s="7" t="s">
         <v>1358</v>
       </c>
-      <c r="E486" s="13" t="s">
+      <c r="E486" s="7" t="s">
         <v>1359</v>
       </c>
     </row>
     <row r="487" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B487" s="4">
+      <c r="A487" s="6"/>
+      <c r="B487" s="6">
         <v>534</v>
       </c>
-      <c r="C487" s="13" t="s">
+      <c r="C487" s="7" t="s">
         <v>1360</v>
       </c>
-      <c r="D487" s="13" t="s">
+      <c r="D487" s="7" t="s">
         <v>1361</v>
       </c>
-      <c r="E487" s="13" t="s">
+      <c r="E487" s="7" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="488" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B488" s="4">
+      <c r="A488" s="6"/>
+      <c r="B488" s="6">
         <v>537</v>
       </c>
-      <c r="C488" s="13" t="s">
+      <c r="C488" s="7" t="s">
         <v>1363</v>
       </c>
-      <c r="D488" s="13" t="s">
+      <c r="D488" s="7" t="s">
         <v>1364</v>
       </c>
-      <c r="E488" s="13" t="s">
+      <c r="E488" s="7" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B489" s="4">
+      <c r="A489" s="6"/>
+      <c r="B489" s="6">
         <v>540</v>
       </c>
-      <c r="C489" s="13" t="s">
+      <c r="C489" s="7" t="s">
         <v>1366</v>
       </c>
-      <c r="D489" s="13" t="s">
+      <c r="D489" s="7" t="s">
         <v>1367</v>
       </c>
-      <c r="E489" s="13" t="s">
+      <c r="E489" s="7" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="490" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A490" s="4" t="s">
+      <c r="A490" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="B490" s="4">
+      <c r="B490" s="6">
         <v>546</v>
       </c>
-      <c r="C490" s="13" t="s">
+      <c r="C490" s="7" t="s">
         <v>1369</v>
       </c>
-      <c r="D490" s="13" t="s">
+      <c r="D490" s="7" t="s">
         <v>1370</v>
       </c>
-      <c r="E490" s="13" t="s">
+      <c r="E490" s="7" t="s">
         <v>1371</v>
       </c>
     </row>
     <row r="491" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B491" s="4">
+      <c r="A491" s="6"/>
+      <c r="B491" s="6">
         <v>549</v>
       </c>
-      <c r="C491" s="13" t="s">
+      <c r="C491" s="7" t="s">
         <v>1372</v>
       </c>
-      <c r="D491" s="13" t="s">
+      <c r="D491" s="7" t="s">
         <v>1373</v>
       </c>
-      <c r="E491" s="13" t="s">
+      <c r="E491" s="7" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B492" s="4">
+      <c r="A492" s="6"/>
+      <c r="B492" s="6">
         <v>552</v>
       </c>
-      <c r="C492" s="13" t="s">
+      <c r="C492" s="7" t="s">
         <v>1375</v>
       </c>
-      <c r="D492" s="13" t="s">
+      <c r="D492" s="7" t="s">
         <v>1376</v>
       </c>
-      <c r="E492" s="13" t="s">
+      <c r="E492" s="7" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="493" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B493" s="4">
+      <c r="A493" s="6"/>
+      <c r="B493" s="6">
         <v>555</v>
       </c>
-      <c r="C493" s="13" t="s">
+      <c r="C493" s="7" t="s">
         <v>1378</v>
       </c>
-      <c r="D493" s="13" t="s">
+      <c r="D493" s="7" t="s">
         <v>1379</v>
       </c>
-      <c r="E493" s="13" t="s">
+      <c r="E493" s="7" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B494" s="4">
+      <c r="A494" s="6"/>
+      <c r="B494" s="6">
         <v>558</v>
       </c>
-      <c r="C494" s="13" t="s">
+      <c r="C494" s="7" t="s">
         <v>1381</v>
       </c>
-      <c r="D494" s="13" t="s">
+      <c r="D494" s="7" t="s">
         <v>1382</v>
       </c>
-      <c r="E494" s="13" t="s">
+      <c r="E494" s="7" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="495" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A495" s="4" t="s">
+      <c r="A495" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="B495" s="4">
+      <c r="B495" s="6">
         <v>564</v>
       </c>
-      <c r="C495" s="13" t="s">
+      <c r="C495" s="7" t="s">
         <v>1384</v>
       </c>
-      <c r="D495" s="13" t="s">
+      <c r="D495" s="7" t="s">
         <v>1385</v>
       </c>
-      <c r="E495" s="13" t="s">
+      <c r="E495" s="7" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="496" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B496" s="4">
+      <c r="A496" s="6"/>
+      <c r="B496" s="6">
         <v>567</v>
       </c>
-      <c r="C496" s="13" t="s">
+      <c r="C496" s="7" t="s">
         <v>1387</v>
       </c>
-      <c r="D496" s="13" t="s">
+      <c r="D496" s="7" t="s">
         <v>1388</v>
       </c>
-      <c r="E496" s="13" t="s">
+      <c r="E496" s="7" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B497" s="4">
+      <c r="A497" s="6"/>
+      <c r="B497" s="6">
         <v>570</v>
       </c>
-      <c r="C497" s="13" t="s">
+      <c r="C497" s="7" t="s">
         <v>1390</v>
       </c>
-      <c r="D497" s="13" t="s">
+      <c r="D497" s="7" t="s">
         <v>1391</v>
       </c>
-      <c r="E497" s="13" t="s">
+      <c r="E497" s="7" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B498" s="4">
+      <c r="A498" s="6"/>
+      <c r="B498" s="6">
         <v>573</v>
       </c>
-      <c r="C498" s="13" t="s">
+      <c r="C498" s="7" t="s">
         <v>1393</v>
       </c>
-      <c r="D498" s="13" t="s">
+      <c r="D498" s="7" t="s">
         <v>1394</v>
       </c>
-      <c r="E498" s="13" t="s">
+      <c r="E498" s="7" t="s">
         <v>1395</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B499" s="4">
+      <c r="A499" s="6"/>
+      <c r="B499" s="6">
         <v>576</v>
       </c>
-      <c r="C499" s="13" t="s">
+      <c r="C499" s="7" t="s">
         <v>1396</v>
       </c>
-      <c r="D499" s="13" t="s">
+      <c r="D499" s="7" t="s">
         <v>1397</v>
       </c>
-      <c r="E499" s="13" t="s">
+      <c r="E499" s="7" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B500" s="4">
+      <c r="A500" s="6"/>
+      <c r="B500" s="6">
         <v>579</v>
       </c>
-      <c r="C500" s="13" t="s">
+      <c r="C500" s="7" t="s">
         <v>1399</v>
       </c>
-      <c r="D500" s="13" t="s">
+      <c r="D500" s="7" t="s">
         <v>1400</v>
       </c>
-      <c r="E500" s="13" t="s">
+      <c r="E500" s="7" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B501" s="4">
+      <c r="A501" s="6"/>
+      <c r="B501" s="6">
         <v>582</v>
       </c>
-      <c r="C501" s="13" t="s">
+      <c r="C501" s="7" t="s">
         <v>1402</v>
       </c>
-      <c r="D501" s="13" t="s">
+      <c r="D501" s="7" t="s">
         <v>1403</v>
       </c>
-      <c r="E501" s="13" t="s">
+      <c r="E501" s="7" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A502" s="4" t="s">
+      <c r="A502" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="B502" s="4">
+      <c r="B502" s="6">
         <v>588</v>
       </c>
-      <c r="C502" s="13" t="s">
+      <c r="C502" s="7" t="s">
         <v>1405</v>
       </c>
-      <c r="D502" s="13" t="s">
+      <c r="D502" s="7" t="s">
         <v>1406</v>
       </c>
-      <c r="E502" s="13" t="s">
+      <c r="E502" s="7" t="s">
         <v>1407</v>
       </c>
     </row>
     <row r="503" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B503" s="4">
+      <c r="A503" s="6"/>
+      <c r="B503" s="6">
         <v>591</v>
       </c>
-      <c r="C503" s="13" t="s">
+      <c r="C503" s="7" t="s">
         <v>1408</v>
       </c>
-      <c r="D503" s="13" t="s">
+      <c r="D503" s="7" t="s">
         <v>1409</v>
       </c>
-      <c r="E503" s="13" t="s">
+      <c r="E503" s="7" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="504" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B504" s="4">
+      <c r="A504" s="6"/>
+      <c r="B504" s="6">
         <v>594</v>
       </c>
-      <c r="C504" s="13" t="s">
+      <c r="C504" s="7" t="s">
         <v>1411</v>
       </c>
-      <c r="D504" s="13" t="s">
+      <c r="D504" s="7" t="s">
         <v>1412</v>
       </c>
-      <c r="E504" s="13" t="s">
+      <c r="E504" s="7" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B505" s="4">
+      <c r="A505" s="6"/>
+      <c r="B505" s="6">
         <v>597</v>
       </c>
-      <c r="C505" s="13" t="s">
+      <c r="C505" s="7" t="s">
         <v>1414</v>
       </c>
-      <c r="D505" s="13" t="s">
+      <c r="D505" s="7" t="s">
         <v>1415</v>
       </c>
-      <c r="E505" s="13" t="s">
+      <c r="E505" s="7" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B506" s="4">
+      <c r="A506" s="6"/>
+      <c r="B506" s="6">
         <v>600</v>
       </c>
-      <c r="C506" s="13" t="s">
+      <c r="C506" s="7" t="s">
         <v>1417</v>
       </c>
-      <c r="D506" s="13" t="s">
+      <c r="D506" s="7" t="s">
         <v>1418</v>
       </c>
-      <c r="E506" s="13" t="s">
+      <c r="E506" s="7" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B507" s="4">
+      <c r="A507" s="6"/>
+      <c r="B507" s="6">
         <v>603</v>
       </c>
-      <c r="C507" s="13" t="s">
+      <c r="C507" s="7" t="s">
         <v>1420</v>
       </c>
-      <c r="D507" s="13" t="s">
+      <c r="D507" s="7" t="s">
         <v>1421</v>
       </c>
-      <c r="E507" s="13" t="s">
+      <c r="E507" s="7" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="508" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B508" s="4">
+      <c r="A508" s="6"/>
+      <c r="B508" s="6">
         <v>606</v>
       </c>
-      <c r="C508" s="13" t="s">
+      <c r="C508" s="7" t="s">
         <v>1423</v>
       </c>
-      <c r="D508" s="13" t="s">
+      <c r="D508" s="7" t="s">
         <v>1424</v>
       </c>
-      <c r="E508" s="13" t="s">
+      <c r="E508" s="7" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="509" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B509" s="4">
+      <c r="A509" s="6"/>
+      <c r="B509" s="6">
         <v>609</v>
       </c>
-      <c r="C509" s="13" t="s">
+      <c r="C509" s="7" t="s">
         <v>1426</v>
       </c>
-      <c r="D509" s="13" t="s">
+      <c r="D509" s="7" t="s">
         <v>1427</v>
       </c>
-      <c r="E509" s="13" t="s">
+      <c r="E509" s="7" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B510" s="4">
+      <c r="A510" s="6"/>
+      <c r="B510" s="6">
         <v>612</v>
       </c>
-      <c r="C510" s="13" t="s">
+      <c r="C510" s="7" t="s">
         <v>1429</v>
       </c>
-      <c r="D510" s="13" t="s">
+      <c r="D510" s="7" t="s">
         <v>1430</v>
       </c>
-      <c r="E510" s="13" t="s">
+      <c r="E510" s="7" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="511" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="B511" s="4">
+      <c r="A511" s="6"/>
+      <c r="B511" s="6">
         <v>615</v>
       </c>
-      <c r="C511" s="13" t="s">
+      <c r="C511" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="D511" s="13" t="s">
+      <c r="D511" s="7" t="s">
         <v>1433</v>
       </c>
-      <c r="E511" s="13" t="s">
+      <c r="E511" s="7" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="512" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B512" s="4">
+      <c r="A512" s="6"/>
+      <c r="B512" s="6">
         <v>618</v>
       </c>
-      <c r="C512" s="13" t="s">
+      <c r="C512" s="7" t="s">
         <v>1435</v>
       </c>
-      <c r="D512" s="13" t="s">
+      <c r="D512" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="E512" s="13" t="s">
+      <c r="E512" s="7" t="s">
         <v>1437</v>
       </c>
     </row>
     <row r="513" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B513" s="4">
+      <c r="A513" s="6"/>
+      <c r="B513" s="6">
         <v>621</v>
       </c>
-      <c r="C513" s="13" t="s">
+      <c r="C513" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="D513" s="13" t="s">
+      <c r="D513" s="7" t="s">
         <v>1439</v>
       </c>
-      <c r="E513" s="13" t="s">
+      <c r="E513" s="7" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="514" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B514" s="4">
+      <c r="A514" s="6"/>
+      <c r="B514" s="6">
         <v>624</v>
       </c>
-      <c r="C514" s="13" t="s">
+      <c r="C514" s="7" t="s">
         <v>1441</v>
       </c>
-      <c r="D514" s="13" t="s">
+      <c r="D514" s="7" t="s">
         <v>1442</v>
       </c>
-      <c r="E514" s="13" t="s">
+      <c r="E514" s="7" t="s">
         <v>1443</v>
       </c>
     </row>
     <row r="515" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B515" s="4">
+      <c r="A515" s="6"/>
+      <c r="B515" s="6">
         <v>627</v>
       </c>
-      <c r="C515" s="13" t="s">
+      <c r="C515" s="7" t="s">
         <v>1444</v>
       </c>
-      <c r="D515" s="13" t="s">
+      <c r="D515" s="7" t="s">
         <v>1445</v>
       </c>
-      <c r="E515" s="13" t="s">
+      <c r="E515" s="7" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="516" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B516" s="4">
+      <c r="A516" s="6"/>
+      <c r="B516" s="6">
         <v>630</v>
       </c>
-      <c r="C516" s="13" t="s">
+      <c r="C516" s="7" t="s">
         <v>1447</v>
       </c>
-      <c r="D516" s="13" t="s">
+      <c r="D516" s="7" t="s">
         <v>1448</v>
       </c>
-      <c r="E516" s="13" t="s">
+      <c r="E516" s="7" t="s">
         <v>1449</v>
       </c>
     </row>
     <row r="517" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B517" s="4">
+      <c r="A517" s="6"/>
+      <c r="B517" s="6">
         <v>633</v>
       </c>
-      <c r="C517" s="13" t="s">
+      <c r="C517" s="7" t="s">
         <v>1450</v>
       </c>
-      <c r="D517" s="13" t="s">
+      <c r="D517" s="7" t="s">
         <v>1451</v>
       </c>
-      <c r="E517" s="13" t="s">
+      <c r="E517" s="7" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="518" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A518" s="4" t="s">
+      <c r="A518" s="6" t="s">
         <v>906</v>
       </c>
-      <c r="B518" s="4">
+      <c r="B518" s="6">
         <v>639</v>
       </c>
-      <c r="C518" s="13" t="s">
+      <c r="C518" s="7" t="s">
         <v>1453</v>
       </c>
-      <c r="D518" s="13" t="s">
+      <c r="D518" s="7" t="s">
         <v>1454</v>
       </c>
-      <c r="E518" s="13" t="s">
+      <c r="E518" s="7" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="519" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B519" s="4">
+      <c r="A519" s="6"/>
+      <c r="B519" s="6">
         <v>642</v>
       </c>
-      <c r="C519" s="13" t="s">
+      <c r="C519" s="7" t="s">
         <v>1456</v>
       </c>
-      <c r="D519" s="13" t="s">
+      <c r="D519" s="7" t="s">
         <v>1457</v>
       </c>
-      <c r="E519" s="13" t="s">
+      <c r="E519" s="7" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B520" s="4">
+      <c r="A520" s="6"/>
+      <c r="B520" s="6">
         <v>645</v>
       </c>
-      <c r="C520" s="13" t="s">
+      <c r="C520" s="7" t="s">
         <v>1459</v>
       </c>
-      <c r="D520" s="13" t="s">
+      <c r="D520" s="7" t="s">
         <v>1460</v>
       </c>
-      <c r="E520" s="13" t="s">
+      <c r="E520" s="7" t="s">
         <v>1461</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B521" s="4">
+      <c r="A521" s="6"/>
+      <c r="B521" s="6">
         <v>648</v>
       </c>
-      <c r="C521" s="13" t="s">
+      <c r="C521" s="7" t="s">
         <v>1462</v>
       </c>
-      <c r="D521" s="13" t="s">
+      <c r="D521" s="7" t="s">
         <v>1463</v>
       </c>
-      <c r="E521" s="13" t="s">
+      <c r="E521" s="7" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="522" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B522" s="4">
+      <c r="A522" s="6"/>
+      <c r="B522" s="6">
         <v>651</v>
       </c>
-      <c r="C522" s="13" t="s">
+      <c r="C522" s="7" t="s">
         <v>1465</v>
       </c>
-      <c r="D522" s="13" t="s">
+      <c r="D522" s="7" t="s">
         <v>1466</v>
       </c>
-      <c r="E522" s="13" t="s">
+      <c r="E522" s="7" t="s">
         <v>1467</v>
       </c>
     </row>
     <row r="523" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B523" s="4">
+      <c r="A523" s="6"/>
+      <c r="B523" s="6">
         <v>654</v>
       </c>
-      <c r="C523" s="13" t="s">
+      <c r="C523" s="7" t="s">
         <v>1468</v>
       </c>
-      <c r="D523" s="13" t="s">
+      <c r="D523" s="7" t="s">
         <v>1469</v>
       </c>
-      <c r="E523" s="13" t="s">
+      <c r="E523" s="7" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="524" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B524" s="4">
+      <c r="A524" s="6"/>
+      <c r="B524" s="6">
         <v>657</v>
       </c>
-      <c r="C524" s="13" t="s">
+      <c r="C524" s="7" t="s">
         <v>1471</v>
       </c>
-      <c r="D524" s="13" t="s">
+      <c r="D524" s="7" t="s">
         <v>1472</v>
       </c>
-      <c r="E524" s="13" t="s">
+      <c r="E524" s="7" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="525" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B525" s="4">
+      <c r="A525" s="6"/>
+      <c r="B525" s="6">
         <v>660</v>
       </c>
-      <c r="C525" s="13" t="s">
+      <c r="C525" s="7" t="s">
         <v>1474</v>
       </c>
-      <c r="D525" s="13" t="s">
+      <c r="D525" s="7" t="s">
         <v>1475</v>
       </c>
-      <c r="E525" s="13" t="s">
+      <c r="E525" s="7" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="526" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B526" s="4">
+      <c r="A526" s="6"/>
+      <c r="B526" s="6">
         <v>663</v>
       </c>
-      <c r="C526" s="13" t="s">
+      <c r="C526" s="7" t="s">
         <v>1477</v>
       </c>
-      <c r="D526" s="13" t="s">
+      <c r="D526" s="7" t="s">
         <v>1478</v>
       </c>
-      <c r="E526" s="13" t="s">
+      <c r="E526" s="7" t="s">
         <v>1479</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B527" s="4">
+      <c r="A527" s="6"/>
+      <c r="B527" s="6">
         <v>666</v>
       </c>
-      <c r="C527" s="13" t="s">
+      <c r="C527" s="7" t="s">
         <v>1480</v>
       </c>
-      <c r="D527" s="13" t="s">
+      <c r="D527" s="7" t="s">
         <v>1481</v>
       </c>
-      <c r="E527" s="13" t="s">
+      <c r="E527" s="7" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="528" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A528" s="4" t="s">
+      <c r="A528" s="6" t="s">
         <v>905</v>
       </c>
-      <c r="B528" s="4">
+      <c r="B528" s="6">
         <v>672</v>
       </c>
-      <c r="C528" s="13" t="s">
+      <c r="C528" s="7" t="s">
         <v>1483</v>
       </c>
-      <c r="D528" s="13" t="s">
+      <c r="D528" s="7" t="s">
         <v>1484</v>
       </c>
-      <c r="E528" s="13" t="s">
+      <c r="E528" s="7" t="s">
         <v>1485</v>
       </c>
     </row>
     <row r="529" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B529" s="4">
+      <c r="A529" s="6"/>
+      <c r="B529" s="6">
         <v>675</v>
       </c>
-      <c r="C529" s="13" t="s">
+      <c r="C529" s="7" t="s">
         <v>1486</v>
       </c>
-      <c r="D529" s="13" t="s">
+      <c r="D529" s="7" t="s">
         <v>1487</v>
       </c>
-      <c r="E529" s="13" t="s">
+      <c r="E529" s="7" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="530" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B530" s="4">
+      <c r="A530" s="6"/>
+      <c r="B530" s="6">
         <v>678</v>
       </c>
-      <c r="C530" s="13" t="s">
+      <c r="C530" s="7" t="s">
         <v>1489</v>
       </c>
-      <c r="D530" s="13" t="s">
+      <c r="D530" s="7" t="s">
         <v>1490</v>
       </c>
-      <c r="E530" s="13" t="s">
+      <c r="E530" s="7" t="s">
         <v>1491</v>
       </c>
     </row>
     <row r="531" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B531" s="4">
+      <c r="A531" s="6"/>
+      <c r="B531" s="6">
         <v>681</v>
       </c>
-      <c r="C531" s="13" t="s">
+      <c r="C531" s="7" t="s">
         <v>1492</v>
       </c>
-      <c r="D531" s="13" t="s">
+      <c r="D531" s="7" t="s">
         <v>1493</v>
       </c>
-      <c r="E531" s="13" t="s">
+      <c r="E531" s="7" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B532" s="4">
+      <c r="A532" s="6"/>
+      <c r="B532" s="6">
         <v>684</v>
       </c>
-      <c r="C532" s="13" t="s">
+      <c r="C532" s="7" t="s">
         <v>1495</v>
       </c>
-      <c r="D532" s="13" t="s">
+      <c r="D532" s="7" t="s">
         <v>1496</v>
       </c>
-      <c r="E532" s="13" t="s">
+      <c r="E532" s="7" t="s">
         <v>1497</v>
       </c>
     </row>
     <row r="533" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B533" s="4">
+      <c r="A533" s="6"/>
+      <c r="B533" s="6">
         <v>687</v>
       </c>
-      <c r="C533" s="13" t="s">
+      <c r="C533" s="7" t="s">
         <v>1498</v>
       </c>
-      <c r="D533" s="13" t="s">
+      <c r="D533" s="7" t="s">
         <v>1499</v>
       </c>
-      <c r="E533" s="13" t="s">
+      <c r="E533" s="7" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B534" s="4">
+      <c r="A534" s="6"/>
+      <c r="B534" s="6">
         <v>690</v>
       </c>
-      <c r="C534" s="13" t="s">
+      <c r="C534" s="7" t="s">
         <v>1501</v>
       </c>
-      <c r="D534" s="13" t="s">
+      <c r="D534" s="7" t="s">
         <v>1502</v>
       </c>
-      <c r="E534" s="13" t="s">
+      <c r="E534" s="7" t="s">
         <v>1503</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B535" s="4">
+      <c r="A535" s="6"/>
+      <c r="B535" s="6">
         <v>693</v>
       </c>
-      <c r="C535" s="13" t="s">
+      <c r="C535" s="7" t="s">
         <v>1504</v>
       </c>
-      <c r="D535" s="13" t="s">
+      <c r="D535" s="7" t="s">
         <v>1505</v>
       </c>
-      <c r="E535" s="13" t="s">
+      <c r="E535" s="7" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="536" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A536" s="4" t="s">
+      <c r="A536" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="B536" s="4">
+      <c r="B536" s="6">
         <v>699</v>
       </c>
-      <c r="C536" s="13" t="s">
+      <c r="C536" s="7" t="s">
         <v>1507</v>
       </c>
-      <c r="D536" s="13" t="s">
+      <c r="D536" s="7" t="s">
         <v>1508</v>
       </c>
-      <c r="E536" s="13" t="s">
+      <c r="E536" s="7" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B537" s="4">
+      <c r="A537" s="6"/>
+      <c r="B537" s="6">
         <v>702</v>
       </c>
-      <c r="C537" s="13" t="s">
+      <c r="C537" s="7" t="s">
         <v>1510</v>
       </c>
-      <c r="D537" s="13" t="s">
+      <c r="D537" s="7" t="s">
         <v>1511</v>
       </c>
-      <c r="E537" s="13" t="s">
+      <c r="E537" s="7" t="s">
         <v>1512</v>
       </c>
     </row>
     <row r="538" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B538" s="4">
+      <c r="A538" s="6"/>
+      <c r="B538" s="6">
         <v>705</v>
       </c>
-      <c r="C538" s="13" t="s">
+      <c r="C538" s="7" t="s">
         <v>1513</v>
       </c>
-      <c r="D538" s="13" t="s">
+      <c r="D538" s="7" t="s">
         <v>1514</v>
       </c>
-      <c r="E538" s="13" t="s">
+      <c r="E538" s="7" t="s">
         <v>1515</v>
       </c>
     </row>
     <row r="539" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B539" s="4">
+      <c r="A539" s="6"/>
+      <c r="B539" s="6">
         <v>708</v>
       </c>
-      <c r="C539" s="13" t="s">
+      <c r="C539" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="D539" s="13" t="s">
+      <c r="D539" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="E539" s="13" t="s">
+      <c r="E539" s="7" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B540" s="4">
+      <c r="A540" s="6"/>
+      <c r="B540" s="6">
         <v>711</v>
       </c>
-      <c r="C540" s="13" t="s">
+      <c r="C540" s="7" t="s">
         <v>1519</v>
       </c>
-      <c r="D540" s="13" t="s">
+      <c r="D540" s="7" t="s">
         <v>1520</v>
       </c>
-      <c r="E540" s="13" t="s">
+      <c r="E540" s="7" t="s">
         <v>1521</v>
       </c>
     </row>
     <row r="541" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B541" s="4">
+      <c r="A541" s="6"/>
+      <c r="B541" s="6">
         <v>714</v>
       </c>
-      <c r="C541" s="13" t="s">
+      <c r="C541" s="7" t="s">
         <v>1522</v>
       </c>
-      <c r="D541" s="13" t="s">
+      <c r="D541" s="7" t="s">
         <v>1523</v>
       </c>
-      <c r="E541" s="13" t="s">
+      <c r="E541" s="7" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="542" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="B542" s="4">
+      <c r="A542" s="6"/>
+      <c r="B542" s="6">
         <v>717</v>
       </c>
-      <c r="C542" s="13" t="s">
+      <c r="C542" s="7" t="s">
         <v>1525</v>
       </c>
-      <c r="D542" s="13" t="s">
+      <c r="D542" s="7" t="s">
         <v>1527</v>
       </c>
-      <c r="E542" s="13" t="s">
+      <c r="E542" s="7" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="543" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B543" s="4">
+      <c r="A543" s="6"/>
+      <c r="B543" s="6">
         <v>720</v>
       </c>
-      <c r="C543" s="13" t="s">
+      <c r="C543" s="7" t="s">
         <v>1526</v>
       </c>
-      <c r="D543" s="13" t="s">
+      <c r="D543" s="7" t="s">
         <v>1529</v>
       </c>
-      <c r="E543" s="13" t="s">
+      <c r="E543" s="7" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="544" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B544" s="4">
+      <c r="A544" s="6"/>
+      <c r="B544" s="6">
         <v>723</v>
       </c>
-      <c r="C544" s="13" t="s">
+      <c r="C544" s="7" t="s">
         <v>1531</v>
       </c>
-      <c r="D544" s="13" t="s">
+      <c r="D544" s="7" t="s">
         <v>1532</v>
       </c>
-      <c r="E544" s="13" t="s">
+      <c r="E544" s="7" t="s">
         <v>1533</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B545" s="4">
+      <c r="A545" s="6"/>
+      <c r="B545" s="6">
         <v>726</v>
       </c>
-      <c r="C545" s="13" t="s">
+      <c r="C545" s="7" t="s">
         <v>1534</v>
       </c>
-      <c r="D545" s="13" t="s">
+      <c r="D545" s="7" t="s">
         <v>1535</v>
       </c>
-      <c r="E545" s="13" t="s">
+      <c r="E545" s="7" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="546" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B546" s="4">
+      <c r="A546" s="6"/>
+      <c r="B546" s="6">
         <v>729</v>
       </c>
-      <c r="C546" s="13" t="s">
+      <c r="C546" s="7" t="s">
         <v>1537</v>
       </c>
-      <c r="D546" s="13" t="s">
+      <c r="D546" s="7" t="s">
         <v>1538</v>
       </c>
-      <c r="E546" s="13" t="s">
+      <c r="E546" s="7" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="547" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B547" s="4">
+      <c r="A547" s="6"/>
+      <c r="B547" s="6">
         <v>732</v>
       </c>
-      <c r="C547" s="13" t="s">
+      <c r="C547" s="7" t="s">
         <v>1540</v>
       </c>
-      <c r="D547" s="13" t="s">
+      <c r="D547" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="E547" s="13" t="s">
+      <c r="E547" s="7" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="548" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B548" s="4">
+      <c r="A548" s="6"/>
+      <c r="B548" s="6">
         <v>735</v>
       </c>
-      <c r="C548" s="13" t="s">
+      <c r="C548" s="7" t="s">
         <v>1543</v>
       </c>
-      <c r="D548" s="13" t="s">
+      <c r="D548" s="7" t="s">
         <v>1544</v>
       </c>
-      <c r="E548" s="13" t="s">
+      <c r="E548" s="7" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="549" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B549" s="4">
+      <c r="A549" s="6"/>
+      <c r="B549" s="6">
         <v>738</v>
       </c>
-      <c r="C549" s="13" t="s">
+      <c r="C549" s="7" t="s">
         <v>1546</v>
       </c>
-      <c r="D549" s="13" t="s">
+      <c r="D549" s="7" t="s">
         <v>1547</v>
       </c>
-      <c r="E549" s="13" t="s">
+      <c r="E549" s="7" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="550" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B550" s="4">
+      <c r="A550" s="6"/>
+      <c r="B550" s="6">
         <v>741</v>
       </c>
-      <c r="C550" s="13" t="s">
+      <c r="C550" s="7" t="s">
         <v>1549</v>
       </c>
-      <c r="D550" s="13" t="s">
+      <c r="D550" s="7" t="s">
         <v>1550</v>
       </c>
-      <c r="E550" s="13" t="s">
+      <c r="E550" s="7" t="s">
         <v>1551</v>
       </c>
     </row>
     <row r="551" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A551" s="4" t="s">
+      <c r="A551" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="B551" s="4">
+      <c r="B551" s="6">
         <v>747</v>
       </c>
-      <c r="C551" s="13" t="s">
+      <c r="C551" s="7" t="s">
         <v>1552</v>
       </c>
-      <c r="D551" s="13" t="s">
+      <c r="D551" s="7" t="s">
         <v>1553</v>
       </c>
-      <c r="E551" s="13" t="s">
+      <c r="E551" s="7" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B552" s="4">
+      <c r="A552" s="6"/>
+      <c r="B552" s="6">
         <v>750</v>
       </c>
-      <c r="C552" s="13" t="s">
+      <c r="C552" s="7" t="s">
         <v>1555</v>
       </c>
-      <c r="D552" s="13" t="s">
+      <c r="D552" s="7" t="s">
         <v>1556</v>
       </c>
-      <c r="E552" s="13" t="s">
+      <c r="E552" s="7" t="s">
         <v>1557</v>
       </c>
     </row>
     <row r="553" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B553" s="4">
+      <c r="A553" s="6"/>
+      <c r="B553" s="6">
         <v>753</v>
       </c>
-      <c r="C553" s="13" t="s">
+      <c r="C553" s="7" t="s">
         <v>1558</v>
       </c>
-      <c r="D553" s="13" t="s">
+      <c r="D553" s="7" t="s">
         <v>1559</v>
       </c>
-      <c r="E553" s="13" t="s">
+      <c r="E553" s="7" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="554" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B554" s="4">
+      <c r="A554" s="6"/>
+      <c r="B554" s="6">
         <v>756</v>
       </c>
-      <c r="C554" s="13" t="s">
+      <c r="C554" s="7" t="s">
         <v>1561</v>
       </c>
-      <c r="D554" s="13" t="s">
+      <c r="D554" s="7" t="s">
         <v>1562</v>
       </c>
-      <c r="E554" s="13" t="s">
+      <c r="E554" s="7" t="s">
         <v>1563</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B555" s="4">
+      <c r="A555" s="6"/>
+      <c r="B555" s="6">
         <v>759</v>
       </c>
-      <c r="C555" s="13" t="s">
+      <c r="C555" s="7" t="s">
         <v>1564</v>
       </c>
-      <c r="D555" s="13" t="s">
+      <c r="D555" s="7" t="s">
         <v>1565</v>
       </c>
-      <c r="E555" s="13" t="s">
+      <c r="E555" s="7" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="556" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="B556" s="4">
+      <c r="A556" s="6"/>
+      <c r="B556" s="6">
         <v>762</v>
       </c>
-      <c r="C556" s="13" t="s">
+      <c r="C556" s="7" t="s">
         <v>1567</v>
       </c>
-      <c r="D556" s="13" t="s">
+      <c r="D556" s="7" t="s">
         <v>1568</v>
       </c>
-      <c r="E556" s="13" t="s">
+      <c r="E556" s="7" t="s">
         <v>1569</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B557" s="4">
+      <c r="A557" s="6"/>
+      <c r="B557" s="6">
         <v>765</v>
       </c>
-      <c r="C557" s="13" t="s">
+      <c r="C557" s="7" t="s">
         <v>1570</v>
       </c>
-      <c r="D557" s="13" t="s">
+      <c r="D557" s="7" t="s">
         <v>1653</v>
       </c>
-      <c r="E557" s="13" t="s">
+      <c r="E557" s="7" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="558" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A558" s="4" t="s">
+      <c r="A558" s="6" t="s">
         <v>1646</v>
       </c>
-      <c r="B558" s="4">
+      <c r="B558" s="6">
         <v>771</v>
       </c>
-      <c r="C558" s="13" t="s">
+      <c r="C558" s="7" t="s">
         <v>1571</v>
       </c>
-      <c r="D558" s="13" t="s">
+      <c r="D558" s="7" t="s">
         <v>1572</v>
       </c>
-      <c r="E558" s="13" t="s">
+      <c r="E558" s="7" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="559" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B559" s="4">
+      <c r="A559" s="6"/>
+      <c r="B559" s="6">
         <v>774</v>
       </c>
-      <c r="C559" s="13" t="s">
+      <c r="C559" s="7" t="s">
         <v>1574</v>
       </c>
-      <c r="D559" s="13" t="s">
+      <c r="D559" s="7" t="s">
         <v>1575</v>
       </c>
-      <c r="E559" s="13" t="s">
+      <c r="E559" s="7" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="560" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B560" s="4">
+      <c r="A560" s="6"/>
+      <c r="B560" s="6">
         <v>777</v>
       </c>
-      <c r="C560" s="13" t="s">
+      <c r="C560" s="7" t="s">
         <v>1577</v>
       </c>
-      <c r="D560" s="13" t="s">
+      <c r="D560" s="7" t="s">
         <v>1578</v>
       </c>
-      <c r="E560" s="13" t="s">
+      <c r="E560" s="7" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B561" s="4">
+      <c r="A561" s="6"/>
+      <c r="B561" s="6">
         <v>780</v>
       </c>
-      <c r="C561" s="13" t="s">
+      <c r="C561" s="7" t="s">
         <v>1580</v>
       </c>
-      <c r="D561" s="13" t="s">
+      <c r="D561" s="7" t="s">
         <v>1581</v>
       </c>
-      <c r="E561" s="13" t="s">
+      <c r="E561" s="7" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="562" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B562" s="4">
+      <c r="A562" s="6"/>
+      <c r="B562" s="6">
         <v>783</v>
       </c>
-      <c r="C562" s="13" t="s">
+      <c r="C562" s="7" t="s">
         <v>1583</v>
       </c>
-      <c r="D562" s="13" t="s">
+      <c r="D562" s="7" t="s">
         <v>1584</v>
       </c>
-      <c r="E562" s="13" t="s">
+      <c r="E562" s="7" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="563" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B563" s="4">
+      <c r="A563" s="6"/>
+      <c r="B563" s="6">
         <v>786</v>
       </c>
-      <c r="C563" s="13" t="s">
+      <c r="C563" s="7" t="s">
         <v>1586</v>
       </c>
-      <c r="D563" s="13" t="s">
+      <c r="D563" s="7" t="s">
         <v>1587</v>
       </c>
-      <c r="E563" s="13" t="s">
+      <c r="E563" s="7" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="564" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B564" s="4">
+      <c r="A564" s="6"/>
+      <c r="B564" s="6">
         <v>789</v>
       </c>
-      <c r="C564" s="13" t="s">
+      <c r="C564" s="7" t="s">
         <v>1589</v>
       </c>
-      <c r="D564" s="13" t="s">
+      <c r="D564" s="7" t="s">
         <v>1590</v>
       </c>
-      <c r="E564" s="13" t="s">
+      <c r="E564" s="7" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="565" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B565" s="4">
+      <c r="A565" s="6"/>
+      <c r="B565" s="6">
         <v>792</v>
       </c>
-      <c r="C565" s="13" t="s">
+      <c r="C565" s="7" t="s">
         <v>1592</v>
       </c>
-      <c r="D565" s="13" t="s">
+      <c r="D565" s="7" t="s">
         <v>1593</v>
       </c>
-      <c r="E565" s="13" t="s">
+      <c r="E565" s="7" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="566" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B566" s="4">
+      <c r="A566" s="6"/>
+      <c r="B566" s="6">
         <v>795</v>
       </c>
-      <c r="C566" s="13" t="s">
+      <c r="C566" s="7" t="s">
         <v>1595</v>
       </c>
-      <c r="D566" s="13" t="s">
+      <c r="D566" s="7" t="s">
         <v>1596</v>
       </c>
-      <c r="E566" s="13" t="s">
+      <c r="E566" s="7" t="s">
         <v>1597</v>
       </c>
     </row>
     <row r="567" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B567" s="4">
+      <c r="A567" s="6"/>
+      <c r="B567" s="6">
         <v>798</v>
       </c>
-      <c r="C567" s="13" t="s">
+      <c r="C567" s="7" t="s">
         <v>1598</v>
       </c>
-      <c r="D567" s="13" t="s">
+      <c r="D567" s="7" t="s">
         <v>1599</v>
       </c>
-      <c r="E567" s="13" t="s">
+      <c r="E567" s="7" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B568" s="4">
+      <c r="A568" s="6"/>
+      <c r="B568" s="6">
         <v>801</v>
       </c>
-      <c r="C568" s="13" t="s">
+      <c r="C568" s="7" t="s">
         <v>1601</v>
       </c>
-      <c r="D568" s="13" t="s">
+      <c r="D568" s="7" t="s">
         <v>1602</v>
       </c>
-      <c r="E568" s="13" t="s">
+      <c r="E568" s="7" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="569" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A569" s="4" t="s">
+      <c r="A569" s="6" t="s">
         <v>1647</v>
       </c>
-      <c r="B569" s="4">
+      <c r="B569" s="6">
         <v>807</v>
       </c>
-      <c r="C569" s="13" t="s">
+      <c r="C569" s="7" t="s">
         <v>1604</v>
       </c>
-      <c r="D569" s="13" t="s">
+      <c r="D569" s="7" t="s">
         <v>1605</v>
       </c>
-      <c r="E569" s="13" t="s">
+      <c r="E569" s="7" t="s">
         <v>1606</v>
       </c>
     </row>
     <row r="570" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B570" s="4">
+      <c r="A570" s="6"/>
+      <c r="B570" s="6">
         <v>810</v>
       </c>
-      <c r="C570" s="13" t="s">
+      <c r="C570" s="7" t="s">
         <v>1607</v>
       </c>
-      <c r="D570" s="13" t="s">
+      <c r="D570" s="7" t="s">
         <v>1608</v>
       </c>
-      <c r="E570" s="13" t="s">
+      <c r="E570" s="7" t="s">
         <v>1609</v>
       </c>
     </row>
     <row r="571" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B571" s="4">
+      <c r="A571" s="6"/>
+      <c r="B571" s="6">
         <v>813</v>
       </c>
-      <c r="C571" s="13" t="s">
+      <c r="C571" s="7" t="s">
         <v>1610</v>
       </c>
-      <c r="D571" s="13" t="s">
+      <c r="D571" s="7" t="s">
         <v>1611</v>
       </c>
-      <c r="E571" s="13" t="s">
+      <c r="E571" s="7" t="s">
         <v>1612</v>
       </c>
     </row>
     <row r="572" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B572" s="4">
+      <c r="A572" s="6"/>
+      <c r="B572" s="6">
         <v>816</v>
       </c>
-      <c r="C572" s="13" t="s">
+      <c r="C572" s="7" t="s">
         <v>1613</v>
       </c>
-      <c r="D572" s="13" t="s">
+      <c r="D572" s="7" t="s">
         <v>1614</v>
       </c>
-      <c r="E572" s="13" t="s">
+      <c r="E572" s="7" t="s">
         <v>1615</v>
       </c>
     </row>
     <row r="573" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B573" s="4">
+      <c r="A573" s="6"/>
+      <c r="B573" s="6">
         <v>819</v>
       </c>
-      <c r="C573" s="13" t="s">
+      <c r="C573" s="7" t="s">
         <v>1616</v>
       </c>
-      <c r="D573" s="13" t="s">
+      <c r="D573" s="7" t="s">
         <v>1617</v>
       </c>
-      <c r="E573" s="13" t="s">
+      <c r="E573" s="7" t="s">
         <v>1618</v>
       </c>
     </row>
     <row r="574" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B574" s="4">
+      <c r="A574" s="6"/>
+      <c r="B574" s="6">
         <v>822</v>
       </c>
-      <c r="C574" s="13" t="s">
+      <c r="C574" s="7" t="s">
         <v>1619</v>
       </c>
-      <c r="D574" s="13" t="s">
+      <c r="D574" s="7" t="s">
         <v>1620</v>
       </c>
-      <c r="E574" s="13" t="s">
+      <c r="E574" s="7" t="s">
         <v>1621</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B575" s="4">
+      <c r="A575" s="6"/>
+      <c r="B575" s="6">
         <v>825</v>
       </c>
-      <c r="C575" s="13" t="s">
+      <c r="C575" s="7" t="s">
         <v>1622</v>
       </c>
-      <c r="D575" s="13" t="s">
+      <c r="D575" s="7" t="s">
         <v>1623</v>
       </c>
-      <c r="E575" s="13" t="s">
+      <c r="E575" s="7" t="s">
         <v>1624</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B576" s="4">
+      <c r="A576" s="6"/>
+      <c r="B576" s="6">
         <v>828</v>
       </c>
-      <c r="C576" s="13" t="s">
+      <c r="C576" s="7" t="s">
         <v>1625</v>
       </c>
-      <c r="D576" s="13" t="s">
+      <c r="D576" s="7" t="s">
         <v>1626</v>
       </c>
-      <c r="E576" s="13" t="s">
+      <c r="E576" s="7" t="s">
         <v>1627</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B577" s="4">
+      <c r="A577" s="6"/>
+      <c r="B577" s="6">
         <v>831</v>
       </c>
-      <c r="C577" s="13" t="s">
+      <c r="C577" s="7" t="s">
         <v>1628</v>
       </c>
-      <c r="D577" s="13" t="s">
+      <c r="D577" s="7" t="s">
         <v>1629</v>
       </c>
-      <c r="E577" s="13" t="s">
+      <c r="E577" s="7" t="s">
         <v>1630</v>
       </c>
     </row>
     <row r="578" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A578" s="4" t="s">
+      <c r="A578" s="6" t="s">
         <v>1648</v>
       </c>
-      <c r="B578" s="4">
+      <c r="B578" s="6">
         <v>837</v>
       </c>
-      <c r="C578" s="13" t="s">
+      <c r="C578" s="7" t="s">
         <v>1631</v>
       </c>
-      <c r="D578" s="13" t="s">
+      <c r="D578" s="7" t="s">
         <v>1632</v>
       </c>
-      <c r="E578" s="13" t="s">
+      <c r="E578" s="7" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="579" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B579" s="4">
+      <c r="A579" s="6"/>
+      <c r="B579" s="6">
         <v>840</v>
       </c>
-      <c r="C579" s="13" t="s">
+      <c r="C579" s="7" t="s">
         <v>1634</v>
       </c>
-      <c r="D579" s="13" t="s">
+      <c r="D579" s="7" t="s">
         <v>1635</v>
       </c>
-      <c r="E579" s="13" t="s">
+      <c r="E579" s="7" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="580" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B580" s="4">
+      <c r="A580" s="6"/>
+      <c r="B580" s="6">
         <v>843</v>
       </c>
-      <c r="C580" s="13" t="s">
+      <c r="C580" s="7" t="s">
         <v>1637</v>
       </c>
-      <c r="D580" s="13" t="s">
+      <c r="D580" s="7" t="s">
         <v>1638</v>
       </c>
-      <c r="E580" s="13" t="s">
+      <c r="E580" s="7" t="s">
         <v>1639</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B581" s="4">
+      <c r="A581" s="6"/>
+      <c r="B581" s="6">
         <v>846</v>
       </c>
-      <c r="C581" s="13" t="s">
+      <c r="C581" s="7" t="s">
         <v>1640</v>
       </c>
-      <c r="D581" s="13" t="s">
+      <c r="D581" s="7" t="s">
         <v>1641</v>
       </c>
-      <c r="E581" s="13" t="s">
+      <c r="E581" s="7" t="s">
         <v>1642</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B582" s="4">
+      <c r="A582" s="6"/>
+      <c r="B582" s="6">
         <v>849</v>
       </c>
-      <c r="C582" s="13" t="s">
+      <c r="C582" s="7" t="s">
         <v>1643</v>
       </c>
-      <c r="D582" s="13" t="s">
+      <c r="D582" s="7" t="s">
         <v>1644</v>
       </c>
-      <c r="E582" s="13" t="s">
+      <c r="E582" s="7" t="s">
         <v>1645</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B583" s="4">
+      <c r="A583" s="15"/>
+      <c r="B583" s="15">
         <v>942</v>
       </c>
-      <c r="C583" s="13" t="s">
+      <c r="C583" s="16" t="s">
         <v>928</v>
       </c>
       <c r="D583" s="16" t="s">
@@ -14014,6 +14359,167 @@
       </c>
       <c r="E583" s="16" t="s">
         <v>930</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A584" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B584" s="4" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C584" s="13" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D584" s="13" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E584" s="13" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B585" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C585" s="13" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D585" s="13" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E585" s="13" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B586" s="4">
+        <v>44</v>
+      </c>
+      <c r="C586" s="13" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D586" s="13" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E586" s="13" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A587" s="15"/>
+      <c r="B587" s="15" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C587" s="16" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D587" s="16" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E587" s="16" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A588" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B588" s="4">
+        <v>7</v>
+      </c>
+      <c r="C588" s="13" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D588" s="13" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E588" s="13" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B589" s="4">
+        <v>16</v>
+      </c>
+      <c r="C589" s="13" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D589" s="13" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E589" s="13" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B590" s="4">
+        <v>22</v>
+      </c>
+      <c r="C590" s="13" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D590" s="13" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E590" s="13" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B591" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C591" s="13" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D591" s="13" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E591" s="13" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B592" s="4">
+        <v>143</v>
+      </c>
+      <c r="C592" s="13" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D592" s="13" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E592" s="13" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="593" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B593" s="4">
+        <v>152</v>
+      </c>
+      <c r="C593" s="13" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D593" s="13" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E593" s="13" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="594" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B594" s="4">
+        <v>161</v>
+      </c>
+      <c r="C594" s="13" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D594" s="13" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E594" s="13" t="s">
+        <v>1690</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Гильдия Виглитаффа/Комнаты.xlsx
+++ b/Texts/Город Сокровищ/Гильдия Виглитаффа/Комнаты.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1701">
   <si>
     <t>Раздел</t>
   </si>
@@ -5104,6 +5104,27 @@
   </si>
   <si>
     <t>Ëñéë</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P07C/m11a0301.ssb</t>
+  </si>
+  <si>
+    <t>17, 21, 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go hard at it again\ntomorrow, [hero]!</t>
+  </si>
+  <si>
+    <t>31, 35, 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Завтра мы снова будем\nусердно трудиться, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàâóñà íú òîïâà áôäåí\nôòåñäîï óñôäéóûòÿ, [hero]!</t>
+  </si>
+  <si>
+    <t>49, 53</t>
   </si>
 </sst>
 </file>
@@ -5630,10 +5651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E594"/>
+  <dimension ref="A1:E598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B587" workbookViewId="0">
-      <selection activeCell="E594" sqref="E594"/>
+    <sheetView tabSelected="1" topLeftCell="A590" workbookViewId="0">
+      <selection activeCell="C593" sqref="C593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14494,7 +14515,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="593" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B593" s="4">
         <v>152</v>
       </c>
@@ -14508,18 +14529,79 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="594" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B594" s="4">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A594" s="15"/>
+      <c r="B594" s="15">
         <v>161</v>
       </c>
-      <c r="C594" s="13" t="s">
+      <c r="C594" s="16" t="s">
         <v>1678</v>
       </c>
-      <c r="D594" s="13" t="s">
+      <c r="D594" s="16" t="s">
         <v>1684</v>
       </c>
-      <c r="E594" s="13" t="s">
+      <c r="E594" s="16" t="s">
         <v>1690</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A595" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B595" s="4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C595" s="13" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D595" s="13" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E595" s="13" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B596" s="4" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C596" s="13" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D596" s="13" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E596" s="13" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B597" s="4">
+        <v>45</v>
+      </c>
+      <c r="C597" s="13" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D597" s="13" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E597" s="13" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A598" s="15"/>
+      <c r="B598" s="15" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C598" s="16" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D598" s="16" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E598" s="16" t="s">
+        <v>1670</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Гильдия Виглитаффа/Комнаты.xlsx
+++ b/Texts/Город Сокровищ/Гильдия Виглитаффа/Комнаты.xlsx
@@ -2405,9 +2405,6 @@
     <t>И вот, мы наконец-то добрались до лагеря.\nЕй-боже, клянусь, это был самый лучший\nмомент в моей жизни.</t>
   </si>
   <si>
-    <t>É âïó, íú îàëïîåø-óï äïáñàìéòû äï ìàãåñÿ.\nÅê-áïçå, ëìÿîôòû, üóï áúì òàíúê ìôœšéê\níïíåîó â íïåê çéèîé.</t>
-  </si>
-  <si>
     <t>Oof... If it wasn\'t for Team [team:], this\nexpedition wouldn\'t have been quite so fun…</t>
   </si>
   <si>
@@ -3699,12 +3696,6 @@
   </si>
   <si>
     <t>P.S. It\'s that time of year again! The season\nof the grand master of all things bad![K] Yippee!</t>
-  </si>
-  <si>
-    <t>П.С. Снова пришло это время! Момент,\nкогда появляется великий владыка всего\nсамого плохого![K] Урааа!</t>
-  </si>
-  <si>
-    <t>Ð.Ò. Òîïâà ðñéšìï üóï âñåíÿ! Íïíåîó,\nëïãäà ðïÿâìÿåóòÿ âåìéëéê âìàäúëà âòåãï\nòàíïãï ðìïöïãï![K] Ôñààà!</t>
   </si>
   <si>
     <t>[CN][CS:N]Sunflora[CR]\'s Oh My Gosh Diary\n[CN]Entry 15: They\'re Saving Us!\n[CN]OO Month XX Day, Sunny</t>
@@ -5125,6 +5116,15 @@
   </si>
   <si>
     <t>49, 53</t>
+  </si>
+  <si>
+    <t>É âïó, íú îàëïîåø-óï äïáñàìéòû äï ìàãåñÿ.\nÅê-áïãô, ëìÿîôòû, üóï áúì òàíúê ìôœšéê\níïíåîó â íïåê çéèîé.</t>
+  </si>
+  <si>
+    <t>П.С. Снова пришло это время! Момент,\nкогда появляется Гранд мастер всего\nсамого плохого![K] Урааа!</t>
+  </si>
+  <si>
+    <t>Ð.Ò. Òîïâà ðñéšìï üóï âñåíÿ! Íïíåîó,\nëïãäà ðïÿâìÿåóòÿ Ãñàîä íàòóåñ âòåãï\nòàíïãï ðìïöïãï![K] Ôñààà!</t>
   </si>
 </sst>
 </file>
@@ -5653,8 +5653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A590" workbookViewId="0">
-      <selection activeCell="C593" sqref="C593"/>
+    <sheetView tabSelected="1" topLeftCell="B440" workbookViewId="0">
+      <selection activeCell="C443" sqref="C443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6319,10 +6319,10 @@
         <v>43</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -6351,10 +6351,10 @@
         <v>45</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -9950,7 +9950,7 @@
         <v>793</v>
       </c>
       <c r="E289" s="13" t="s">
-        <v>794</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -9958,13 +9958,13 @@
         <v>708</v>
       </c>
       <c r="C290" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="D290" s="13" t="s">
         <v>795</v>
       </c>
-      <c r="D290" s="13" t="s">
+      <c r="E290" s="13" t="s">
         <v>796</v>
-      </c>
-      <c r="E290" s="13" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -9972,30 +9972,30 @@
         <v>711</v>
       </c>
       <c r="C291" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="D291" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="D291" s="13" t="s">
+      <c r="E291" s="13" t="s">
         <v>799</v>
-      </c>
-      <c r="E291" s="13" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B292" s="4">
         <v>717</v>
       </c>
       <c r="C292" s="13" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D292" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="E292" s="13" t="s">
         <v>803</v>
-      </c>
-      <c r="E292" s="13" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -10003,13 +10003,13 @@
         <v>720</v>
       </c>
       <c r="C293" s="13" t="s">
+        <v>805</v>
+      </c>
+      <c r="D293" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="E293" s="13" t="s">
         <v>806</v>
-      </c>
-      <c r="D293" s="13" t="s">
-        <v>805</v>
-      </c>
-      <c r="E293" s="13" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10017,13 +10017,13 @@
         <v>723</v>
       </c>
       <c r="C294" s="13" t="s">
+        <v>807</v>
+      </c>
+      <c r="D294" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="D294" s="13" t="s">
+      <c r="E294" s="13" t="s">
         <v>809</v>
-      </c>
-      <c r="E294" s="13" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10031,13 +10031,13 @@
         <v>726</v>
       </c>
       <c r="C295" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="D295" s="13" t="s">
         <v>811</v>
       </c>
-      <c r="D295" s="13" t="s">
+      <c r="E295" s="13" t="s">
         <v>812</v>
-      </c>
-      <c r="E295" s="13" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -10045,13 +10045,13 @@
         <v>729</v>
       </c>
       <c r="C296" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="D296" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="D296" s="13" t="s">
+      <c r="E296" s="13" t="s">
         <v>815</v>
-      </c>
-      <c r="E296" s="13" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10059,13 +10059,13 @@
         <v>732</v>
       </c>
       <c r="C297" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="D297" s="13" t="s">
         <v>817</v>
       </c>
-      <c r="D297" s="13" t="s">
+      <c r="E297" s="13" t="s">
         <v>818</v>
-      </c>
-      <c r="E297" s="13" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10073,13 +10073,13 @@
         <v>735</v>
       </c>
       <c r="C298" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="D298" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="D298" s="13" t="s">
+      <c r="E298" s="13" t="s">
         <v>821</v>
-      </c>
-      <c r="E298" s="13" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -10087,13 +10087,13 @@
         <v>738</v>
       </c>
       <c r="C299" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="D299" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="D299" s="13" t="s">
+      <c r="E299" s="13" t="s">
         <v>824</v>
-      </c>
-      <c r="E299" s="13" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -10101,13 +10101,13 @@
         <v>741</v>
       </c>
       <c r="C300" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="D300" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="D300" s="13" t="s">
+      <c r="E300" s="13" t="s">
         <v>827</v>
-      </c>
-      <c r="E300" s="13" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10115,13 +10115,13 @@
         <v>744</v>
       </c>
       <c r="C301" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="D301" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="D301" s="13" t="s">
+      <c r="E301" s="13" t="s">
         <v>830</v>
-      </c>
-      <c r="E301" s="13" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10129,13 +10129,13 @@
         <v>747</v>
       </c>
       <c r="C302" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="D302" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="D302" s="13" t="s">
+      <c r="E302" s="13" t="s">
         <v>833</v>
-      </c>
-      <c r="E302" s="13" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -10143,13 +10143,13 @@
         <v>750</v>
       </c>
       <c r="C303" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="D303" s="13" t="s">
         <v>835</v>
       </c>
-      <c r="D303" s="13" t="s">
+      <c r="E303" s="13" t="s">
         <v>836</v>
-      </c>
-      <c r="E303" s="13" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -10157,13 +10157,13 @@
         <v>753</v>
       </c>
       <c r="C304" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="D304" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="D304" s="13" t="s">
+      <c r="E304" s="13" t="s">
         <v>839</v>
-      </c>
-      <c r="E304" s="13" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -10171,30 +10171,30 @@
         <v>756</v>
       </c>
       <c r="C305" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="D305" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="D305" s="13" t="s">
+      <c r="E305" s="13" t="s">
         <v>842</v>
-      </c>
-      <c r="E305" s="13" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B306" s="4">
         <v>762</v>
       </c>
       <c r="C306" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="D306" s="13" t="s">
         <v>844</v>
       </c>
-      <c r="D306" s="13" t="s">
+      <c r="E306" s="13" t="s">
         <v>845</v>
-      </c>
-      <c r="E306" s="13" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -10202,13 +10202,13 @@
         <v>765</v>
       </c>
       <c r="C307" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="D307" s="13" t="s">
         <v>847</v>
       </c>
-      <c r="D307" s="13" t="s">
+      <c r="E307" s="13" t="s">
         <v>848</v>
-      </c>
-      <c r="E307" s="13" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10216,13 +10216,13 @@
         <v>768</v>
       </c>
       <c r="C308" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="D308" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="D308" s="13" t="s">
+      <c r="E308" s="13" t="s">
         <v>851</v>
-      </c>
-      <c r="E308" s="13" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -10230,13 +10230,13 @@
         <v>771</v>
       </c>
       <c r="C309" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="D309" s="13" t="s">
         <v>853</v>
       </c>
-      <c r="D309" s="13" t="s">
+      <c r="E309" s="13" t="s">
         <v>854</v>
-      </c>
-      <c r="E309" s="13" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10244,13 +10244,13 @@
         <v>774</v>
       </c>
       <c r="C310" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="D310" s="13" t="s">
         <v>856</v>
       </c>
-      <c r="D310" s="13" t="s">
+      <c r="E310" s="13" t="s">
         <v>857</v>
-      </c>
-      <c r="E310" s="13" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10258,13 +10258,13 @@
         <v>777</v>
       </c>
       <c r="C311" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="D311" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="D311" s="13" t="s">
+      <c r="E311" s="13" t="s">
         <v>860</v>
-      </c>
-      <c r="E311" s="13" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -10272,13 +10272,13 @@
         <v>780</v>
       </c>
       <c r="C312" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="D312" s="13" t="s">
         <v>862</v>
       </c>
-      <c r="D312" s="13" t="s">
+      <c r="E312" s="13" t="s">
         <v>863</v>
-      </c>
-      <c r="E312" s="13" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10286,30 +10286,30 @@
         <v>783</v>
       </c>
       <c r="C313" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="D313" s="13" t="s">
         <v>865</v>
       </c>
-      <c r="D313" s="13" t="s">
+      <c r="E313" s="13" t="s">
         <v>866</v>
-      </c>
-      <c r="E313" s="13" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B314" s="4">
         <v>789</v>
       </c>
       <c r="C314" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="D314" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="D314" s="13" t="s">
+      <c r="E314" s="13" t="s">
         <v>869</v>
-      </c>
-      <c r="E314" s="13" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -10317,13 +10317,13 @@
         <v>792</v>
       </c>
       <c r="C315" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="D315" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="D315" s="13" t="s">
+      <c r="E315" s="13" t="s">
         <v>872</v>
-      </c>
-      <c r="E315" s="13" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -10331,13 +10331,13 @@
         <v>795</v>
       </c>
       <c r="C316" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="D316" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="D316" s="13" t="s">
+      <c r="E316" s="13" t="s">
         <v>875</v>
-      </c>
-      <c r="E316" s="13" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10345,13 +10345,13 @@
         <v>798</v>
       </c>
       <c r="C317" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="D317" s="13" t="s">
         <v>877</v>
       </c>
-      <c r="D317" s="13" t="s">
+      <c r="E317" s="13" t="s">
         <v>878</v>
-      </c>
-      <c r="E317" s="13" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10359,13 +10359,13 @@
         <v>801</v>
       </c>
       <c r="C318" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="D318" s="13" t="s">
         <v>880</v>
       </c>
-      <c r="D318" s="13" t="s">
+      <c r="E318" s="13" t="s">
         <v>881</v>
-      </c>
-      <c r="E318" s="13" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10373,13 +10373,13 @@
         <v>804</v>
       </c>
       <c r="C319" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="D319" s="13" t="s">
         <v>883</v>
       </c>
-      <c r="D319" s="13" t="s">
+      <c r="E319" s="13" t="s">
         <v>884</v>
-      </c>
-      <c r="E319" s="13" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10387,13 +10387,13 @@
         <v>807</v>
       </c>
       <c r="C320" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="D320" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="D320" s="13" t="s">
+      <c r="E320" s="13" t="s">
         <v>887</v>
-      </c>
-      <c r="E320" s="13" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10401,30 +10401,30 @@
         <v>810</v>
       </c>
       <c r="C321" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="D321" s="13" t="s">
         <v>889</v>
       </c>
-      <c r="D321" s="13" t="s">
+      <c r="E321" s="13" t="s">
         <v>890</v>
-      </c>
-      <c r="E321" s="13" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B322" s="4">
         <v>816</v>
       </c>
       <c r="C322" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="D322" s="13" t="s">
         <v>892</v>
       </c>
-      <c r="D322" s="13" t="s">
+      <c r="E322" s="13" t="s">
         <v>893</v>
-      </c>
-      <c r="E322" s="13" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10432,13 +10432,13 @@
         <v>819</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D323" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="E323" s="13" t="s">
         <v>931</v>
-      </c>
-      <c r="E323" s="13" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -10446,13 +10446,13 @@
         <v>822</v>
       </c>
       <c r="C324" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="D324" s="13" t="s">
         <v>896</v>
       </c>
-      <c r="D324" s="13" t="s">
+      <c r="E324" s="13" t="s">
         <v>897</v>
-      </c>
-      <c r="E324" s="13" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -10460,13 +10460,13 @@
         <v>825</v>
       </c>
       <c r="C325" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="D325" s="13" t="s">
         <v>899</v>
       </c>
-      <c r="D325" s="13" t="s">
+      <c r="E325" s="13" t="s">
         <v>900</v>
-      </c>
-      <c r="E325" s="13" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -10474,13 +10474,13 @@
         <v>828</v>
       </c>
       <c r="C326" s="13" t="s">
+        <v>901</v>
+      </c>
+      <c r="D326" s="13" t="s">
         <v>902</v>
       </c>
-      <c r="D326" s="13" t="s">
-        <v>903</v>
-      </c>
       <c r="E326" s="13" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -10488,13 +10488,13 @@
         <v>831</v>
       </c>
       <c r="C327" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="D327" s="13" t="s">
         <v>908</v>
       </c>
-      <c r="D327" s="13" t="s">
+      <c r="E327" s="13" t="s">
         <v>909</v>
-      </c>
-      <c r="E327" s="13" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -10502,13 +10502,13 @@
         <v>834</v>
       </c>
       <c r="C328" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="D328" s="13" t="s">
         <v>911</v>
       </c>
-      <c r="D328" s="13" t="s">
+      <c r="E328" s="13" t="s">
         <v>912</v>
-      </c>
-      <c r="E328" s="13" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10516,13 +10516,13 @@
         <v>837</v>
       </c>
       <c r="C329" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="D329" s="13" t="s">
         <v>914</v>
       </c>
-      <c r="D329" s="13" t="s">
+      <c r="E329" s="13" t="s">
         <v>915</v>
-      </c>
-      <c r="E329" s="13" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10530,13 +10530,13 @@
         <v>840</v>
       </c>
       <c r="C330" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="D330" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="D330" s="13" t="s">
+      <c r="E330" s="13" t="s">
         <v>918</v>
-      </c>
-      <c r="E330" s="13" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10544,13 +10544,13 @@
         <v>843</v>
       </c>
       <c r="C331" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="D331" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="D331" s="13" t="s">
+      <c r="E331" s="13" t="s">
         <v>921</v>
-      </c>
-      <c r="E331" s="13" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10558,18 +10558,18 @@
         <v>846</v>
       </c>
       <c r="C332" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="D332" s="13" t="s">
         <v>923</v>
       </c>
-      <c r="D332" s="13" t="s">
+      <c r="E332" s="13" t="s">
         <v>924</v>
-      </c>
-      <c r="E332" s="13" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B333" s="4">
         <v>852</v>
@@ -10698,7 +10698,7 @@
     </row>
     <row r="342" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B342" s="4">
         <v>879</v>
@@ -10719,18 +10719,18 @@
         <v>974</v>
       </c>
       <c r="C343" s="16" t="s">
+        <v>927</v>
+      </c>
+      <c r="D343" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="D343" s="16" t="s">
+      <c r="E343" s="16" t="s">
         <v>929</v>
-      </c>
-      <c r="E343" s="16" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A344" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B344" s="20">
         <v>36</v>
@@ -10753,13 +10753,13 @@
         <v>40</v>
       </c>
       <c r="C345" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="D345" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="D345" s="7" t="s">
+      <c r="E345" s="7" t="s">
         <v>935</v>
-      </c>
-      <c r="E345" s="7" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -10785,13 +10785,13 @@
         <v>57</v>
       </c>
       <c r="C347" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="D347" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="D347" s="7" t="s">
+      <c r="E347" s="7" t="s">
         <v>938</v>
-      </c>
-      <c r="E347" s="7" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10800,13 +10800,13 @@
         <v>60</v>
       </c>
       <c r="C348" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="D348" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="D348" s="7" t="s">
+      <c r="E348" s="7" t="s">
         <v>941</v>
-      </c>
-      <c r="E348" s="7" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10815,13 +10815,13 @@
         <v>63</v>
       </c>
       <c r="C349" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="D349" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="D349" s="7" t="s">
+      <c r="E349" s="7" t="s">
         <v>944</v>
-      </c>
-      <c r="E349" s="7" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10830,13 +10830,13 @@
         <v>66</v>
       </c>
       <c r="C350" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="D350" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="D350" s="7" t="s">
+      <c r="E350" s="7" t="s">
         <v>947</v>
-      </c>
-      <c r="E350" s="7" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10845,13 +10845,13 @@
         <v>69</v>
       </c>
       <c r="C351" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="D351" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="D351" s="7" t="s">
+      <c r="E351" s="7" t="s">
         <v>950</v>
-      </c>
-      <c r="E351" s="7" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10860,13 +10860,13 @@
         <v>72</v>
       </c>
       <c r="C352" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="D352" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="D352" s="7" t="s">
+      <c r="E352" s="7" t="s">
         <v>953</v>
-      </c>
-      <c r="E352" s="7" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10875,13 +10875,13 @@
         <v>75</v>
       </c>
       <c r="C353" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="D353" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="D353" s="7" t="s">
+      <c r="E353" s="7" t="s">
         <v>956</v>
-      </c>
-      <c r="E353" s="7" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10890,13 +10890,13 @@
         <v>78</v>
       </c>
       <c r="C354" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="D354" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="D354" s="7" t="s">
+      <c r="E354" s="7" t="s">
         <v>959</v>
-      </c>
-      <c r="E354" s="7" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10905,13 +10905,13 @@
         <v>81</v>
       </c>
       <c r="C355" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="D355" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="D355" s="7" t="s">
+      <c r="E355" s="7" t="s">
         <v>962</v>
-      </c>
-      <c r="E355" s="7" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10920,13 +10920,13 @@
         <v>84</v>
       </c>
       <c r="C356" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="D356" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="D356" s="7" t="s">
+      <c r="E356" s="7" t="s">
         <v>965</v>
-      </c>
-      <c r="E356" s="7" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -10935,13 +10935,13 @@
         <v>87</v>
       </c>
       <c r="C357" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="D357" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="D357" s="7" t="s">
+      <c r="E357" s="7" t="s">
         <v>968</v>
-      </c>
-      <c r="E357" s="7" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -10952,13 +10952,13 @@
         <v>105</v>
       </c>
       <c r="C358" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="D358" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="D358" s="7" t="s">
+      <c r="E358" s="7" t="s">
         <v>971</v>
-      </c>
-      <c r="E358" s="7" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -10967,13 +10967,13 @@
         <v>108</v>
       </c>
       <c r="C359" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="D359" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="D359" s="7" t="s">
+      <c r="E359" s="7" t="s">
         <v>974</v>
-      </c>
-      <c r="E359" s="7" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -10982,13 +10982,13 @@
         <v>111</v>
       </c>
       <c r="C360" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="D360" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="D360" s="7" t="s">
+      <c r="E360" s="7" t="s">
         <v>977</v>
-      </c>
-      <c r="E360" s="7" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -10997,13 +10997,13 @@
         <v>114</v>
       </c>
       <c r="C361" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="D361" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="D361" s="7" t="s">
+      <c r="E361" s="7" t="s">
         <v>980</v>
-      </c>
-      <c r="E361" s="7" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11012,13 +11012,13 @@
         <v>117</v>
       </c>
       <c r="C362" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="D362" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="D362" s="7" t="s">
+      <c r="E362" s="7" t="s">
         <v>983</v>
-      </c>
-      <c r="E362" s="7" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11027,13 +11027,13 @@
         <v>120</v>
       </c>
       <c r="C363" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="D363" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="D363" s="7" t="s">
+      <c r="E363" s="7" t="s">
         <v>986</v>
-      </c>
-      <c r="E363" s="7" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -11042,13 +11042,13 @@
         <v>123</v>
       </c>
       <c r="C364" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="D364" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="D364" s="7" t="s">
+      <c r="E364" s="7" t="s">
         <v>989</v>
-      </c>
-      <c r="E364" s="7" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11057,13 +11057,13 @@
         <v>126</v>
       </c>
       <c r="C365" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="D365" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="D365" s="7" t="s">
+      <c r="E365" s="7" t="s">
         <v>992</v>
-      </c>
-      <c r="E365" s="7" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -11072,13 +11072,13 @@
         <v>129</v>
       </c>
       <c r="C366" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="D366" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="D366" s="7" t="s">
+      <c r="E366" s="7" t="s">
         <v>995</v>
-      </c>
-      <c r="E366" s="7" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11089,13 +11089,13 @@
         <v>135</v>
       </c>
       <c r="C367" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="D367" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="D367" s="7" t="s">
+      <c r="E367" s="7" t="s">
         <v>998</v>
-      </c>
-      <c r="E367" s="7" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11104,13 +11104,13 @@
         <v>138</v>
       </c>
       <c r="C368" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="D368" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="D368" s="7" t="s">
+      <c r="E368" s="7" t="s">
         <v>1001</v>
-      </c>
-      <c r="E368" s="7" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11119,13 +11119,13 @@
         <v>141</v>
       </c>
       <c r="C369" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D369" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="D369" s="7" t="s">
+      <c r="E369" s="7" t="s">
         <v>1004</v>
-      </c>
-      <c r="E369" s="7" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
@@ -11134,13 +11134,13 @@
         <v>144</v>
       </c>
       <c r="C370" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D370" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="D370" s="7" t="s">
+      <c r="E370" s="7" t="s">
         <v>1007</v>
-      </c>
-      <c r="E370" s="7" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11149,13 +11149,13 @@
         <v>147</v>
       </c>
       <c r="C371" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D371" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="D371" s="7" t="s">
+      <c r="E371" s="7" t="s">
         <v>1010</v>
-      </c>
-      <c r="E371" s="7" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -11164,13 +11164,13 @@
         <v>150</v>
       </c>
       <c r="C372" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D372" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="D372" s="7" t="s">
+      <c r="E372" s="7" t="s">
         <v>1013</v>
-      </c>
-      <c r="E372" s="7" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11179,13 +11179,13 @@
         <v>153</v>
       </c>
       <c r="C373" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D373" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="D373" s="7" t="s">
+      <c r="E373" s="7" t="s">
         <v>1016</v>
-      </c>
-      <c r="E373" s="7" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11194,13 +11194,13 @@
         <v>156</v>
       </c>
       <c r="C374" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D374" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="D374" s="7" t="s">
+      <c r="E374" s="7" t="s">
         <v>1019</v>
-      </c>
-      <c r="E374" s="7" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11209,13 +11209,13 @@
         <v>159</v>
       </c>
       <c r="C375" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D375" s="7" t="s">
         <v>1021</v>
       </c>
-      <c r="D375" s="7" t="s">
+      <c r="E375" s="7" t="s">
         <v>1022</v>
-      </c>
-      <c r="E375" s="7" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11226,13 +11226,13 @@
         <v>165</v>
       </c>
       <c r="C376" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D376" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="D376" s="7" t="s">
+      <c r="E376" s="7" t="s">
         <v>1025</v>
-      </c>
-      <c r="E376" s="7" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
@@ -11241,13 +11241,13 @@
         <v>168</v>
       </c>
       <c r="C377" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D377" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="D377" s="7" t="s">
+      <c r="E377" s="7" t="s">
         <v>1028</v>
-      </c>
-      <c r="E377" s="7" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11256,13 +11256,13 @@
         <v>171</v>
       </c>
       <c r="C378" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D378" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="D378" s="7" t="s">
+      <c r="E378" s="7" t="s">
         <v>1031</v>
-      </c>
-      <c r="E378" s="7" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11271,13 +11271,13 @@
         <v>174</v>
       </c>
       <c r="C379" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D379" s="7" t="s">
         <v>1033</v>
       </c>
-      <c r="D379" s="7" t="s">
+      <c r="E379" s="7" t="s">
         <v>1034</v>
-      </c>
-      <c r="E379" s="7" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11286,13 +11286,13 @@
         <v>177</v>
       </c>
       <c r="C380" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D380" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="D380" s="7" t="s">
+      <c r="E380" s="7" t="s">
         <v>1037</v>
-      </c>
-      <c r="E380" s="7" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11301,13 +11301,13 @@
         <v>180</v>
       </c>
       <c r="C381" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D381" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="D381" s="7" t="s">
+      <c r="E381" s="7" t="s">
         <v>1040</v>
-      </c>
-      <c r="E381" s="7" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11316,13 +11316,13 @@
         <v>183</v>
       </c>
       <c r="C382" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D382" s="7" t="s">
         <v>1042</v>
       </c>
-      <c r="D382" s="7" t="s">
+      <c r="E382" s="7" t="s">
         <v>1043</v>
-      </c>
-      <c r="E382" s="7" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -11331,13 +11331,13 @@
         <v>186</v>
       </c>
       <c r="C383" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D383" s="7" t="s">
         <v>1045</v>
       </c>
-      <c r="D383" s="7" t="s">
+      <c r="E383" s="7" t="s">
         <v>1046</v>
-      </c>
-      <c r="E383" s="7" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
@@ -11346,13 +11346,13 @@
         <v>189</v>
       </c>
       <c r="C384" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D384" s="7" t="s">
         <v>1048</v>
       </c>
-      <c r="D384" s="7" t="s">
+      <c r="E384" s="7" t="s">
         <v>1049</v>
-      </c>
-      <c r="E384" s="7" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11361,13 +11361,13 @@
         <v>192</v>
       </c>
       <c r="C385" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D385" s="7" t="s">
         <v>1051</v>
       </c>
-      <c r="D385" s="7" t="s">
+      <c r="E385" s="7" t="s">
         <v>1052</v>
-      </c>
-      <c r="E385" s="7" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
@@ -11376,13 +11376,13 @@
         <v>195</v>
       </c>
       <c r="C386" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D386" s="7" t="s">
         <v>1054</v>
       </c>
-      <c r="D386" s="7" t="s">
+      <c r="E386" s="7" t="s">
         <v>1055</v>
-      </c>
-      <c r="E386" s="7" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11391,13 +11391,13 @@
         <v>198</v>
       </c>
       <c r="C387" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D387" s="7" t="s">
         <v>1057</v>
       </c>
-      <c r="D387" s="7" t="s">
+      <c r="E387" s="7" t="s">
         <v>1058</v>
-      </c>
-      <c r="E387" s="7" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -11408,13 +11408,13 @@
         <v>204</v>
       </c>
       <c r="C388" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D388" s="7" t="s">
         <v>1060</v>
       </c>
-      <c r="D388" s="7" t="s">
+      <c r="E388" s="7" t="s">
         <v>1061</v>
-      </c>
-      <c r="E388" s="7" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11423,13 +11423,13 @@
         <v>207</v>
       </c>
       <c r="C389" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D389" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="D389" s="7" t="s">
+      <c r="E389" s="7" t="s">
         <v>1064</v>
-      </c>
-      <c r="E389" s="7" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11438,13 +11438,13 @@
         <v>210</v>
       </c>
       <c r="C390" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D390" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="D390" s="7" t="s">
+      <c r="E390" s="7" t="s">
         <v>1067</v>
-      </c>
-      <c r="E390" s="7" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
@@ -11453,13 +11453,13 @@
         <v>213</v>
       </c>
       <c r="C391" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D391" s="7" t="s">
         <v>1069</v>
       </c>
-      <c r="D391" s="7" t="s">
+      <c r="E391" s="7" t="s">
         <v>1070</v>
-      </c>
-      <c r="E391" s="7" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11468,13 +11468,13 @@
         <v>216</v>
       </c>
       <c r="C392" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D392" s="7" t="s">
         <v>1072</v>
       </c>
-      <c r="D392" s="7" t="s">
+      <c r="E392" s="7" t="s">
         <v>1073</v>
-      </c>
-      <c r="E392" s="7" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
@@ -11483,13 +11483,13 @@
         <v>219</v>
       </c>
       <c r="C393" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D393" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="D393" s="7" t="s">
+      <c r="E393" s="7" t="s">
         <v>1076</v>
-      </c>
-      <c r="E393" s="7" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11498,13 +11498,13 @@
         <v>222</v>
       </c>
       <c r="C394" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D394" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="D394" s="7" t="s">
+      <c r="E394" s="7" t="s">
         <v>1079</v>
-      </c>
-      <c r="E394" s="7" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11513,13 +11513,13 @@
         <v>225</v>
       </c>
       <c r="C395" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D395" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="D395" s="7" t="s">
+      <c r="E395" s="7" t="s">
         <v>1082</v>
-      </c>
-      <c r="E395" s="7" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11528,13 +11528,13 @@
         <v>228</v>
       </c>
       <c r="C396" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D396" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="D396" s="7" t="s">
+      <c r="E396" s="7" t="s">
         <v>1085</v>
-      </c>
-      <c r="E396" s="7" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11543,13 +11543,13 @@
         <v>231</v>
       </c>
       <c r="C397" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D397" s="7" t="s">
         <v>1087</v>
       </c>
-      <c r="D397" s="7" t="s">
+      <c r="E397" s="7" t="s">
         <v>1088</v>
-      </c>
-      <c r="E397" s="7" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11558,13 +11558,13 @@
         <v>234</v>
       </c>
       <c r="C398" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D398" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="D398" s="7" t="s">
+      <c r="E398" s="7" t="s">
         <v>1091</v>
-      </c>
-      <c r="E398" s="7" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11573,13 +11573,13 @@
         <v>237</v>
       </c>
       <c r="C399" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D399" s="7" t="s">
         <v>1093</v>
       </c>
-      <c r="D399" s="7" t="s">
+      <c r="E399" s="7" t="s">
         <v>1094</v>
-      </c>
-      <c r="E399" s="7" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
@@ -11588,13 +11588,13 @@
         <v>240</v>
       </c>
       <c r="C400" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D400" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="D400" s="7" t="s">
+      <c r="E400" s="7" t="s">
         <v>1097</v>
-      </c>
-      <c r="E400" s="7" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11605,13 +11605,13 @@
         <v>246</v>
       </c>
       <c r="C401" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D401" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="D401" s="7" t="s">
+      <c r="E401" s="7" t="s">
         <v>1100</v>
-      </c>
-      <c r="E401" s="7" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
@@ -11620,13 +11620,13 @@
         <v>249</v>
       </c>
       <c r="C402" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D402" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="D402" s="7" t="s">
+      <c r="E402" s="7" t="s">
         <v>1103</v>
-      </c>
-      <c r="E402" s="7" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11635,13 +11635,13 @@
         <v>252</v>
       </c>
       <c r="C403" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D403" s="7" t="s">
         <v>1105</v>
       </c>
-      <c r="D403" s="7" t="s">
+      <c r="E403" s="7" t="s">
         <v>1106</v>
-      </c>
-      <c r="E403" s="7" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
@@ -11650,13 +11650,13 @@
         <v>255</v>
       </c>
       <c r="C404" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D404" s="7" t="s">
         <v>1108</v>
       </c>
-      <c r="D404" s="7" t="s">
+      <c r="E404" s="7" t="s">
         <v>1109</v>
-      </c>
-      <c r="E404" s="7" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11665,13 +11665,13 @@
         <v>258</v>
       </c>
       <c r="C405" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D405" s="7" t="s">
         <v>1111</v>
       </c>
-      <c r="D405" s="7" t="s">
+      <c r="E405" s="7" t="s">
         <v>1112</v>
-      </c>
-      <c r="E405" s="7" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11680,13 +11680,13 @@
         <v>261</v>
       </c>
       <c r="C406" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D406" s="7" t="s">
         <v>1114</v>
       </c>
-      <c r="D406" s="7" t="s">
+      <c r="E406" s="7" t="s">
         <v>1115</v>
-      </c>
-      <c r="E406" s="7" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -11697,13 +11697,13 @@
         <v>267</v>
       </c>
       <c r="C407" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D407" s="7" t="s">
         <v>1117</v>
       </c>
-      <c r="D407" s="7" t="s">
+      <c r="E407" s="7" t="s">
         <v>1118</v>
-      </c>
-      <c r="E407" s="7" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="408" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11712,13 +11712,13 @@
         <v>270</v>
       </c>
       <c r="C408" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D408" s="7" t="s">
         <v>1120</v>
       </c>
-      <c r="D408" s="7" t="s">
+      <c r="E408" s="7" t="s">
         <v>1121</v>
-      </c>
-      <c r="E408" s="7" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -11727,13 +11727,13 @@
         <v>273</v>
       </c>
       <c r="C409" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D409" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="D409" s="7" t="s">
+      <c r="E409" s="7" t="s">
         <v>1124</v>
-      </c>
-      <c r="E409" s="7" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11742,13 +11742,13 @@
         <v>276</v>
       </c>
       <c r="C410" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D410" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="D410" s="7" t="s">
+      <c r="E410" s="7" t="s">
         <v>1127</v>
-      </c>
-      <c r="E410" s="7" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11757,13 +11757,13 @@
         <v>279</v>
       </c>
       <c r="C411" s="7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D411" s="7" t="s">
         <v>1129</v>
       </c>
-      <c r="D411" s="7" t="s">
+      <c r="E411" s="7" t="s">
         <v>1130</v>
-      </c>
-      <c r="E411" s="7" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -11772,13 +11772,13 @@
         <v>282</v>
       </c>
       <c r="C412" s="7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D412" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="D412" s="7" t="s">
+      <c r="E412" s="7" t="s">
         <v>1133</v>
-      </c>
-      <c r="E412" s="7" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="413" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11787,13 +11787,13 @@
         <v>288</v>
       </c>
       <c r="C413" s="7" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D413" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="D413" s="7" t="s">
+      <c r="E413" s="7" t="s">
         <v>1136</v>
-      </c>
-      <c r="E413" s="7" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="414" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11802,13 +11802,13 @@
         <v>291</v>
       </c>
       <c r="C414" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D414" s="7" t="s">
         <v>1138</v>
       </c>
-      <c r="D414" s="7" t="s">
+      <c r="E414" s="7" t="s">
         <v>1139</v>
-      </c>
-      <c r="E414" s="7" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
@@ -11817,13 +11817,13 @@
         <v>294</v>
       </c>
       <c r="C415" s="7" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D415" s="7" t="s">
         <v>1141</v>
       </c>
-      <c r="D415" s="7" t="s">
+      <c r="E415" s="7" t="s">
         <v>1142</v>
-      </c>
-      <c r="E415" s="7" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="416" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11832,13 +11832,13 @@
         <v>297</v>
       </c>
       <c r="C416" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D416" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="D416" s="7" t="s">
+      <c r="E416" s="7" t="s">
         <v>1145</v>
-      </c>
-      <c r="E416" s="7" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11847,13 +11847,13 @@
         <v>300</v>
       </c>
       <c r="C417" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D417" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="D417" s="7" t="s">
+      <c r="E417" s="7" t="s">
         <v>1148</v>
-      </c>
-      <c r="E417" s="7" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11862,13 +11862,13 @@
         <v>303</v>
       </c>
       <c r="C418" s="7" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D418" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="D418" s="7" t="s">
+      <c r="E418" s="7" t="s">
         <v>1151</v>
-      </c>
-      <c r="E418" s="7" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11877,13 +11877,13 @@
         <v>306</v>
       </c>
       <c r="C419" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D419" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E419" s="7" t="s">
         <v>1154</v>
-      </c>
-      <c r="D419" s="7" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E419" s="7" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11892,13 +11892,13 @@
         <v>309</v>
       </c>
       <c r="C420" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D420" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="D420" s="7" t="s">
+      <c r="E420" s="7" t="s">
         <v>1157</v>
-      </c>
-      <c r="E420" s="7" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11907,13 +11907,13 @@
         <v>312</v>
       </c>
       <c r="C421" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D421" s="7" t="s">
         <v>1159</v>
       </c>
-      <c r="D421" s="7" t="s">
+      <c r="E421" s="7" t="s">
         <v>1160</v>
-      </c>
-      <c r="E421" s="7" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -11924,13 +11924,13 @@
         <v>318</v>
       </c>
       <c r="C422" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D422" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="D422" s="7" t="s">
+      <c r="E422" s="7" t="s">
         <v>1163</v>
-      </c>
-      <c r="E422" s="7" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -11939,13 +11939,13 @@
         <v>321</v>
       </c>
       <c r="C423" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D423" s="7" t="s">
         <v>1165</v>
       </c>
-      <c r="D423" s="7" t="s">
+      <c r="E423" s="7" t="s">
         <v>1166</v>
-      </c>
-      <c r="E423" s="7" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11954,13 +11954,13 @@
         <v>324</v>
       </c>
       <c r="C424" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D424" s="7" t="s">
         <v>1168</v>
       </c>
-      <c r="D424" s="7" t="s">
+      <c r="E424" s="7" t="s">
         <v>1169</v>
-      </c>
-      <c r="E424" s="7" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11969,13 +11969,13 @@
         <v>327</v>
       </c>
       <c r="C425" s="7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D425" s="7" t="s">
         <v>1171</v>
       </c>
-      <c r="D425" s="7" t="s">
+      <c r="E425" s="7" t="s">
         <v>1172</v>
-      </c>
-      <c r="E425" s="7" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -11984,13 +11984,13 @@
         <v>330</v>
       </c>
       <c r="C426" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D426" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="D426" s="7" t="s">
+      <c r="E426" s="7" t="s">
         <v>1175</v>
-      </c>
-      <c r="E426" s="7" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -11999,13 +11999,13 @@
         <v>333</v>
       </c>
       <c r="C427" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D427" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="D427" s="7" t="s">
+      <c r="E427" s="7" t="s">
         <v>1178</v>
-      </c>
-      <c r="E427" s="7" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12014,13 +12014,13 @@
         <v>336</v>
       </c>
       <c r="C428" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D428" s="7" t="s">
         <v>1180</v>
       </c>
-      <c r="D428" s="7" t="s">
+      <c r="E428" s="7" t="s">
         <v>1181</v>
-      </c>
-      <c r="E428" s="7" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -12031,13 +12031,13 @@
         <v>342</v>
       </c>
       <c r="C429" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D429" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="D429" s="7" t="s">
+      <c r="E429" s="7" t="s">
         <v>1184</v>
-      </c>
-      <c r="E429" s="7" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -12046,13 +12046,13 @@
         <v>345</v>
       </c>
       <c r="C430" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D430" s="7" t="s">
         <v>1186</v>
       </c>
-      <c r="D430" s="7" t="s">
+      <c r="E430" s="7" t="s">
         <v>1187</v>
-      </c>
-      <c r="E430" s="7" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12061,13 +12061,13 @@
         <v>348</v>
       </c>
       <c r="C431" s="7" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D431" s="7" t="s">
         <v>1189</v>
       </c>
-      <c r="D431" s="7" t="s">
+      <c r="E431" s="7" t="s">
         <v>1190</v>
-      </c>
-      <c r="E431" s="7" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -12076,13 +12076,13 @@
         <v>351</v>
       </c>
       <c r="C432" s="7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D432" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="D432" s="7" t="s">
+      <c r="E432" s="7" t="s">
         <v>1193</v>
-      </c>
-      <c r="E432" s="7" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -12091,13 +12091,13 @@
         <v>354</v>
       </c>
       <c r="C433" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D433" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="D433" s="7" t="s">
+      <c r="E433" s="7" t="s">
         <v>1196</v>
-      </c>
-      <c r="E433" s="7" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
@@ -12106,13 +12106,13 @@
         <v>357</v>
       </c>
       <c r="C434" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D434" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="D434" s="7" t="s">
+      <c r="E434" s="7" t="s">
         <v>1199</v>
-      </c>
-      <c r="E434" s="7" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12121,13 +12121,13 @@
         <v>360</v>
       </c>
       <c r="C435" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D435" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="D435" s="7" t="s">
+      <c r="E435" s="7" t="s">
         <v>1202</v>
-      </c>
-      <c r="E435" s="7" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -12138,13 +12138,13 @@
         <v>366</v>
       </c>
       <c r="C436" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D436" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="D436" s="7" t="s">
+      <c r="E436" s="7" t="s">
         <v>1205</v>
-      </c>
-      <c r="E436" s="7" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12153,13 +12153,13 @@
         <v>369</v>
       </c>
       <c r="C437" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D437" s="7" t="s">
         <v>1207</v>
       </c>
-      <c r="D437" s="7" t="s">
+      <c r="E437" s="7" t="s">
         <v>1208</v>
-      </c>
-      <c r="E437" s="7" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -12168,13 +12168,13 @@
         <v>372</v>
       </c>
       <c r="C438" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D438" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="D438" s="7" t="s">
+      <c r="E438" s="7" t="s">
         <v>1211</v>
-      </c>
-      <c r="E438" s="7" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12183,13 +12183,13 @@
         <v>375</v>
       </c>
       <c r="C439" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D439" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="D439" s="7" t="s">
+      <c r="E439" s="7" t="s">
         <v>1214</v>
-      </c>
-      <c r="E439" s="7" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -12198,13 +12198,13 @@
         <v>378</v>
       </c>
       <c r="C440" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D440" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="D440" s="7" t="s">
+      <c r="E440" s="7" t="s">
         <v>1217</v>
-      </c>
-      <c r="E440" s="7" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
@@ -12213,13 +12213,13 @@
         <v>381</v>
       </c>
       <c r="C441" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D441" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="D441" s="7" t="s">
+      <c r="E441" s="7" t="s">
         <v>1220</v>
-      </c>
-      <c r="E441" s="7" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -12228,13 +12228,13 @@
         <v>384</v>
       </c>
       <c r="C442" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D442" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="D442" s="7" t="s">
+      <c r="E442" s="7" t="s">
         <v>1223</v>
-      </c>
-      <c r="E442" s="7" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12243,13 +12243,13 @@
         <v>387</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D443" s="7" t="s">
-        <v>1226</v>
+        <v>1699</v>
       </c>
       <c r="E443" s="7" t="s">
-        <v>1227</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -12260,13 +12260,13 @@
         <v>393</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="D444" s="7" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E444" s="7" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
@@ -12275,13 +12275,13 @@
         <v>396</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="D445" s="7" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="E445" s="7" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12290,13 +12290,13 @@
         <v>399</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="D446" s="7" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="E446" s="7" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12305,13 +12305,13 @@
         <v>402</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="D447" s="7" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="E447" s="7" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
@@ -12320,13 +12320,13 @@
         <v>405</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D448" s="7" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="E448" s="7" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="449" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12335,30 +12335,30 @@
         <v>408</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="D449" s="7" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="E449" s="7" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="450" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="B450" s="6">
         <v>414</v>
       </c>
       <c r="C450" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D450" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E450" s="7" t="s">
         <v>1246</v>
-      </c>
-      <c r="D450" s="7" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E450" s="7" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
@@ -12367,13 +12367,13 @@
         <v>417</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D451" s="7" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="E451" s="7" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12382,13 +12382,13 @@
         <v>420</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="E452" s="7" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
@@ -12397,13 +12397,13 @@
         <v>423</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="D453" s="7" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E453" s="7" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12412,13 +12412,13 @@
         <v>426</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D454" s="7" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="E454" s="7" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12427,13 +12427,13 @@
         <v>429</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="D455" s="7" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="E455" s="7" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
@@ -12442,13 +12442,13 @@
         <v>432</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D456" s="7" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="E456" s="7" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
@@ -12457,13 +12457,13 @@
         <v>435</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="D457" s="7" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="E457" s="7" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12472,13 +12472,13 @@
         <v>438</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="D458" s="7" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="E458" s="7" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
@@ -12487,13 +12487,13 @@
         <v>441</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="D459" s="7" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="E459" s="7" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
@@ -12502,30 +12502,30 @@
         <v>444</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="D460" s="7" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E460" s="7" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="461" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="B461" s="6">
         <v>450</v>
       </c>
       <c r="C461" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D461" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E461" s="7" t="s">
         <v>1280</v>
-      </c>
-      <c r="D461" s="7" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E461" s="7" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12534,13 +12534,13 @@
         <v>453</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="D462" s="7" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="E462" s="7" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12549,13 +12549,13 @@
         <v>456</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="D463" s="7" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="E463" s="7" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
@@ -12564,13 +12564,13 @@
         <v>459</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D464" s="7" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="E464" s="7" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12579,13 +12579,13 @@
         <v>462</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="D465" s="7" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="E465" s="7" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="466" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -12594,13 +12594,13 @@
         <v>465</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="D466" s="7" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="E466" s="7" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
@@ -12609,30 +12609,30 @@
         <v>468</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="E467" s="7" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="B468" s="6">
         <v>474</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="E468" s="7" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12641,13 +12641,13 @@
         <v>477</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D469" s="7" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="E469" s="7" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -12656,13 +12656,13 @@
         <v>480</v>
       </c>
       <c r="C470" s="7" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D470" s="7" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="E470" s="7" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12671,13 +12671,13 @@
         <v>483</v>
       </c>
       <c r="C471" s="7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D471" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E471" s="7" t="s">
         <v>1311</v>
-      </c>
-      <c r="D471" s="7" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E471" s="7" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="472" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -12686,13 +12686,13 @@
         <v>486</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="D472" s="7" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="E472" s="7" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="473" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -12701,13 +12701,13 @@
         <v>489</v>
       </c>
       <c r="C473" s="7" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="D473" s="7" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="E473" s="7" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="474" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -12716,13 +12716,13 @@
         <v>492</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="D474" s="7" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="E474" s="7" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="475" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12731,13 +12731,13 @@
         <v>495</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D475" s="7" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="E475" s="7" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
@@ -12746,13 +12746,13 @@
         <v>498</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="D476" s="7" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="E476" s="7" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -12763,13 +12763,13 @@
         <v>504</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D477" s="7" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="E477" s="7" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12778,13 +12778,13 @@
         <v>507</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="D478" s="7" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="E478" s="7" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12793,13 +12793,13 @@
         <v>510</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="D479" s="7" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="E479" s="7" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
@@ -12808,13 +12808,13 @@
         <v>513</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="D480" s="7" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="E480" s="7" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
@@ -12823,13 +12823,13 @@
         <v>516</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="D481" s="7" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="E481" s="7" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
@@ -12838,13 +12838,13 @@
         <v>519</v>
       </c>
       <c r="C482" s="7" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="D482" s="7" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="E482" s="7" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12853,13 +12853,13 @@
         <v>522</v>
       </c>
       <c r="C483" s="7" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="D483" s="7" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="E483" s="7" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="484" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12868,13 +12868,13 @@
         <v>525</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D484" s="7" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="E484" s="7" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="485" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12883,13 +12883,13 @@
         <v>528</v>
       </c>
       <c r="C485" s="7" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="D485" s="7" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="E485" s="7" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="486" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -12898,13 +12898,13 @@
         <v>531</v>
       </c>
       <c r="C486" s="7" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="D486" s="7" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="E486" s="7" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="487" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12913,13 +12913,13 @@
         <v>534</v>
       </c>
       <c r="C487" s="7" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="D487" s="7" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E487" s="7" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="488" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12928,13 +12928,13 @@
         <v>537</v>
       </c>
       <c r="C488" s="7" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="D488" s="7" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E488" s="7" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
@@ -12943,13 +12943,13 @@
         <v>540</v>
       </c>
       <c r="C489" s="7" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="D489" s="7" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="E489" s="7" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="490" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -12960,13 +12960,13 @@
         <v>546</v>
       </c>
       <c r="C490" s="7" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="D490" s="7" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E490" s="7" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="491" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -12975,13 +12975,13 @@
         <v>549</v>
       </c>
       <c r="C491" s="7" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="D491" s="7" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E491" s="7" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -12990,13 +12990,13 @@
         <v>552</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="D492" s="7" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E492" s="7" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="493" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13005,13 +13005,13 @@
         <v>555</v>
       </c>
       <c r="C493" s="7" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="D493" s="7" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="E493" s="7" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
@@ -13020,13 +13020,13 @@
         <v>558</v>
       </c>
       <c r="C494" s="7" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="D494" s="7" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="E494" s="7" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="495" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13037,13 +13037,13 @@
         <v>564</v>
       </c>
       <c r="C495" s="7" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="D495" s="7" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="E495" s="7" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="496" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13052,13 +13052,13 @@
         <v>567</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="D496" s="7" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="E496" s="7" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13067,13 +13067,13 @@
         <v>570</v>
       </c>
       <c r="C497" s="7" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="D497" s="7" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="E497" s="7" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13082,13 +13082,13 @@
         <v>573</v>
       </c>
       <c r="C498" s="7" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="D498" s="7" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="E498" s="7" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13097,13 +13097,13 @@
         <v>576</v>
       </c>
       <c r="C499" s="7" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D499" s="7" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="E499" s="7" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13112,13 +13112,13 @@
         <v>579</v>
       </c>
       <c r="C500" s="7" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D500" s="7" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="E500" s="7" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13127,30 +13127,30 @@
         <v>582</v>
       </c>
       <c r="C501" s="7" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D501" s="7" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="E501" s="7" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A502" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B502" s="6">
         <v>588</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D502" s="7" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="E502" s="7" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="503" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13159,13 +13159,13 @@
         <v>591</v>
       </c>
       <c r="C503" s="7" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="D503" s="7" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="E503" s="7" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="504" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13174,13 +13174,13 @@
         <v>594</v>
       </c>
       <c r="C504" s="7" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="D504" s="7" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="E504" s="7" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13189,13 +13189,13 @@
         <v>597</v>
       </c>
       <c r="C505" s="7" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="D505" s="7" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="E505" s="7" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="506" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13204,13 +13204,13 @@
         <v>600</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="D506" s="7" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="E506" s="7" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="507" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13219,13 +13219,13 @@
         <v>603</v>
       </c>
       <c r="C507" s="7" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="D507" s="7" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="E507" s="7" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="508" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13234,13 +13234,13 @@
         <v>606</v>
       </c>
       <c r="C508" s="7" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="D508" s="7" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="E508" s="7" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="509" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13249,13 +13249,13 @@
         <v>609</v>
       </c>
       <c r="C509" s="7" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="D509" s="7" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="E509" s="7" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
@@ -13264,13 +13264,13 @@
         <v>612</v>
       </c>
       <c r="C510" s="7" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="D510" s="7" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="E510" s="7" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="511" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -13279,13 +13279,13 @@
         <v>615</v>
       </c>
       <c r="C511" s="7" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="D511" s="7" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="E511" s="7" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="512" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13294,13 +13294,13 @@
         <v>618</v>
       </c>
       <c r="C512" s="7" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D512" s="7" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E512" s="7" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="513" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13309,13 +13309,13 @@
         <v>621</v>
       </c>
       <c r="C513" s="7" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="D513" s="7" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="E513" s="7" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="514" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13324,13 +13324,13 @@
         <v>624</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="D514" s="7" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="E514" s="7" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="515" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13339,13 +13339,13 @@
         <v>627</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="D515" s="7" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="E515" s="7" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="516" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13354,13 +13354,13 @@
         <v>630</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="D516" s="7" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E516" s="7" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="517" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13369,30 +13369,30 @@
         <v>633</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="D517" s="7" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="E517" s="7" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="518" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A518" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B518" s="6">
         <v>639</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="D518" s="7" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="E518" s="7" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="519" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13401,13 +13401,13 @@
         <v>642</v>
       </c>
       <c r="C519" s="7" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="D519" s="7" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="E519" s="7" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
@@ -13416,13 +13416,13 @@
         <v>645</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="D520" s="7" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="E520" s="7" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="521" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13431,13 +13431,13 @@
         <v>648</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="D521" s="7" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="E521" s="7" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="522" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13446,13 +13446,13 @@
         <v>651</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="D522" s="7" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="E522" s="7" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="523" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13461,13 +13461,13 @@
         <v>654</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="D523" s="7" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="E523" s="7" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="524" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13476,13 +13476,13 @@
         <v>657</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="D524" s="7" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="E524" s="7" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="525" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13491,13 +13491,13 @@
         <v>660</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="D525" s="7" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="E525" s="7" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="526" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13506,13 +13506,13 @@
         <v>663</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="D526" s="7" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="E526" s="7" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
@@ -13521,30 +13521,30 @@
         <v>666</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="D527" s="7" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="E527" s="7" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="528" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A528" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B528" s="6">
         <v>672</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="D528" s="7" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="E528" s="7" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="529" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13553,13 +13553,13 @@
         <v>675</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="D529" s="7" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="E529" s="7" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="530" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13568,13 +13568,13 @@
         <v>678</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="D530" s="7" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="E530" s="7" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="531" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13583,13 +13583,13 @@
         <v>681</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="D531" s="7" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E531" s="7" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
@@ -13598,13 +13598,13 @@
         <v>684</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="D532" s="7" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E532" s="7" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="533" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13613,13 +13613,13 @@
         <v>687</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="D533" s="7" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E533" s="7" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
@@ -13628,13 +13628,13 @@
         <v>690</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="D534" s="7" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="E534" s="7" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
@@ -13643,30 +13643,30 @@
         <v>693</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="D535" s="7" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="E535" s="7" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="536" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A536" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B536" s="6">
         <v>699</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="D536" s="7" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="E536" s="7" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
@@ -13675,13 +13675,13 @@
         <v>702</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="D537" s="7" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="E537" s="7" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="538" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13690,13 +13690,13 @@
         <v>705</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="D538" s="7" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="E538" s="7" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="539" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13705,13 +13705,13 @@
         <v>708</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="D539" s="7" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="E539" s="7" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
@@ -13720,13 +13720,13 @@
         <v>711</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="D540" s="7" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="E540" s="7" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="541" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13735,13 +13735,13 @@
         <v>714</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="D541" s="7" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="E541" s="7" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="542" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -13750,13 +13750,13 @@
         <v>717</v>
       </c>
       <c r="C542" s="7" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D542" s="7" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E542" s="7" t="s">
         <v>1525</v>
-      </c>
-      <c r="D542" s="7" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E542" s="7" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="543" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13765,13 +13765,13 @@
         <v>720</v>
       </c>
       <c r="C543" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D543" s="7" t="s">
         <v>1526</v>
       </c>
-      <c r="D543" s="7" t="s">
-        <v>1529</v>
-      </c>
       <c r="E543" s="7" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="544" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13780,13 +13780,13 @@
         <v>723</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="D544" s="7" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="E544" s="7" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
@@ -13795,13 +13795,13 @@
         <v>726</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="D545" s="7" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="E545" s="7" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="546" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13810,13 +13810,13 @@
         <v>729</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="D546" s="7" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="E546" s="7" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="547" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13825,13 +13825,13 @@
         <v>732</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="D547" s="7" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="E547" s="7" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="548" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13840,13 +13840,13 @@
         <v>735</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="D548" s="7" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="E548" s="7" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="549" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13855,13 +13855,13 @@
         <v>738</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="D549" s="7" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="E549" s="7" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="550" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13870,30 +13870,30 @@
         <v>741</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="D550" s="7" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="E550" s="7" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="551" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A551" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B551" s="6">
         <v>747</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="D551" s="7" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="E551" s="7" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13902,13 +13902,13 @@
         <v>750</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="D552" s="7" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="E552" s="7" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="553" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -13917,13 +13917,13 @@
         <v>753</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="D553" s="7" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="E553" s="7" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="554" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -13932,13 +13932,13 @@
         <v>756</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="D554" s="7" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="E554" s="7" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.3">
@@ -13947,13 +13947,13 @@
         <v>759</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="D555" s="7" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="E555" s="7" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="556" spans="1:5" ht="42" x14ac:dyDescent="0.3">
@@ -13962,13 +13962,13 @@
         <v>762</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="D556" s="7" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="E556" s="7" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.3">
@@ -13977,30 +13977,30 @@
         <v>765</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="D557" s="7" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="E557" s="7" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="558" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A558" s="6" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="B558" s="6">
         <v>771</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="D558" s="7" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="E558" s="7" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="559" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -14009,13 +14009,13 @@
         <v>774</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="D559" s="7" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="E559" s="7" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="560" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -14024,13 +14024,13 @@
         <v>777</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D560" s="7" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="E560" s="7" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.3">
@@ -14039,13 +14039,13 @@
         <v>780</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="D561" s="7" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="E561" s="7" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="562" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -14054,13 +14054,13 @@
         <v>783</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="D562" s="7" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="E562" s="7" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="563" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -14069,13 +14069,13 @@
         <v>786</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="D563" s="7" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E563" s="7" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="564" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -14084,13 +14084,13 @@
         <v>789</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="D564" s="7" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="E564" s="7" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="565" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -14099,13 +14099,13 @@
         <v>792</v>
       </c>
       <c r="C565" s="7" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="D565" s="7" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="E565" s="7" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="566" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -14114,13 +14114,13 @@
         <v>795</v>
       </c>
       <c r="C566" s="7" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="D566" s="7" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="E566" s="7" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="567" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -14129,13 +14129,13 @@
         <v>798</v>
       </c>
       <c r="C567" s="7" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="D567" s="7" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="E567" s="7" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.3">
@@ -14144,30 +14144,30 @@
         <v>801</v>
       </c>
       <c r="C568" s="7" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="D568" s="7" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="E568" s="7" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="569" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A569" s="6" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="B569" s="6">
         <v>807</v>
       </c>
       <c r="C569" s="7" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="D569" s="7" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="E569" s="7" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="570" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -14176,13 +14176,13 @@
         <v>810</v>
       </c>
       <c r="C570" s="7" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="D570" s="7" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="E570" s="7" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="571" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -14191,13 +14191,13 @@
         <v>813</v>
       </c>
       <c r="C571" s="7" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="D571" s="7" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="E571" s="7" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="572" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -14206,13 +14206,13 @@
         <v>816</v>
       </c>
       <c r="C572" s="7" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="D572" s="7" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="E572" s="7" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="573" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -14221,13 +14221,13 @@
         <v>819</v>
       </c>
       <c r="C573" s="7" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="D573" s="7" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="E573" s="7" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="574" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
@@ -14236,13 +14236,13 @@
         <v>822</v>
       </c>
       <c r="C574" s="7" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="D574" s="7" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="E574" s="7" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.3">
@@ -14251,13 +14251,13 @@
         <v>825</v>
       </c>
       <c r="C575" s="7" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="D575" s="7" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E575" s="7" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.3">
@@ -14266,13 +14266,13 @@
         <v>828</v>
       </c>
       <c r="C576" s="7" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="D576" s="7" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="E576" s="7" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.3">
@@ -14281,30 +14281,30 @@
         <v>831</v>
       </c>
       <c r="C577" s="7" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D577" s="7" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="E577" s="7" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="578" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A578" s="6" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="B578" s="6">
         <v>837</v>
       </c>
       <c r="C578" s="7" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="D578" s="7" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="E578" s="7" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="579" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -14313,13 +14313,13 @@
         <v>840</v>
       </c>
       <c r="C579" s="7" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="D579" s="7" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="E579" s="7" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="580" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
@@ -14328,13 +14328,13 @@
         <v>843</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D580" s="7" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="E580" s="7" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.3">
@@ -14343,13 +14343,13 @@
         <v>846</v>
       </c>
       <c r="C581" s="7" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D581" s="7" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="E581" s="7" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.3">
@@ -14358,13 +14358,13 @@
         <v>849</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="D582" s="7" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="E582" s="7" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
@@ -14373,44 +14373,44 @@
         <v>942</v>
       </c>
       <c r="C583" s="16" t="s">
+        <v>927</v>
+      </c>
+      <c r="D583" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="D583" s="16" t="s">
+      <c r="E583" s="16" t="s">
         <v>929</v>
-      </c>
-      <c r="E583" s="16" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="584" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A584" s="4" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="C584" s="13" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="D584" s="13" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E584" s="13" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="585" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B585" s="4" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="C585" s="13" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="D585" s="13" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="E585" s="13" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.3">
@@ -14418,45 +14418,45 @@
         <v>44</v>
       </c>
       <c r="C586" s="13" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="D586" s="13" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="E586" s="13" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="15"/>
       <c r="B587" s="15" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="C587" s="16" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="D587" s="16" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E587" s="16" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="588" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A588" s="4" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="B588" s="4">
         <v>7</v>
       </c>
       <c r="C588" s="13" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="D588" s="13" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="E588" s="13" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.3">
@@ -14464,13 +14464,13 @@
         <v>16</v>
       </c>
       <c r="C589" s="13" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="D589" s="13" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="E589" s="13" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.3">
@@ -14478,27 +14478,27 @@
         <v>22</v>
       </c>
       <c r="C590" s="13" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="D590" s="13" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="E590" s="13" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B591" s="4" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="C591" s="13" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="D591" s="13" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="E591" s="13" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.3">
@@ -14506,13 +14506,13 @@
         <v>143</v>
       </c>
       <c r="C592" s="13" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="D592" s="13" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="E592" s="13" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
@@ -14520,13 +14520,13 @@
         <v>152</v>
       </c>
       <c r="C593" s="13" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="D593" s="13" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="E593" s="13" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
@@ -14535,44 +14535,44 @@
         <v>161</v>
       </c>
       <c r="C594" s="16" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="D594" s="16" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="E594" s="16" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="595" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A595" s="4" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="C595" s="13" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="D595" s="13" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E595" s="13" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B596" s="4" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="C596" s="13" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D596" s="13" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E596" s="13" t="s">
         <v>1696</v>
-      </c>
-      <c r="D596" s="13" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E596" s="13" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.3">
@@ -14580,28 +14580,28 @@
         <v>45</v>
       </c>
       <c r="C597" s="13" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="D597" s="13" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="E597" s="13" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="15"/>
       <c r="B598" s="15" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="C598" s="16" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="D598" s="16" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E598" s="16" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
   </sheetData>
